--- a/data/CONMEBOL QUALI.xlsx
+++ b/data/CONMEBOL QUALI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felipe\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E5539A4-DF36-46D2-B067-894C4152DD52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0752A96-7ACE-47F5-A814-80FD7306E3B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1480" yWindow="1480" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5970" yWindow="2730" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Search results (276)" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4271" uniqueCount="747">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4271" uniqueCount="746">
   <si>
     <t>Player</t>
   </si>
@@ -1127,9 +1127,6 @@
   </si>
   <si>
     <t>Norwich City</t>
-  </si>
-  <si>
-    <t>CF, LCMF, RCMF</t>
   </si>
   <si>
     <t>Á. Preciado</t>
@@ -2260,7 +2257,7 @@
     <t>LWB, LAMF, CF</t>
   </si>
   <si>
-    <t>CF, LWF</t>
+    <t>LW, LWF, CF</t>
   </si>
 </sst>
 </file>
@@ -2619,7 +2616,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DK277"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="A53" workbookViewId="0">
+    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="A76" workbookViewId="0">
       <selection activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
@@ -28767,7 +28764,7 @@
         <v>116</v>
       </c>
       <c r="D76" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E76">
         <v>25</v>
@@ -36748,7 +36745,7 @@
         <v>116</v>
       </c>
       <c r="D99" t="s">
-        <v>369</v>
+        <v>408</v>
       </c>
       <c r="E99">
         <v>24</v>
@@ -37086,16 +37083,16 @@
     </row>
     <row r="100" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
+        <v>369</v>
+      </c>
+      <c r="B100" t="s">
         <v>370</v>
       </c>
-      <c r="B100" t="s">
+      <c r="C100" t="s">
+        <v>116</v>
+      </c>
+      <c r="D100" t="s">
         <v>371</v>
-      </c>
-      <c r="C100" t="s">
-        <v>116</v>
-      </c>
-      <c r="D100" t="s">
-        <v>372</v>
       </c>
       <c r="E100">
         <v>27</v>
@@ -37433,7 +37430,7 @@
     </row>
     <row r="101" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B101" t="s">
         <v>263</v>
@@ -37442,7 +37439,7 @@
         <v>116</v>
       </c>
       <c r="D101" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E101">
         <v>31</v>
@@ -37780,7 +37777,7 @@
     </row>
     <row r="102" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B102" t="s">
         <v>349</v>
@@ -37789,7 +37786,7 @@
         <v>116</v>
       </c>
       <c r="D102" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E102">
         <v>27</v>
@@ -38127,16 +38124,16 @@
     </row>
     <row r="103" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
+        <v>376</v>
+      </c>
+      <c r="B103" t="s">
         <v>377</v>
       </c>
-      <c r="B103" t="s">
+      <c r="C103" t="s">
+        <v>116</v>
+      </c>
+      <c r="D103" t="s">
         <v>378</v>
-      </c>
-      <c r="C103" t="s">
-        <v>116</v>
-      </c>
-      <c r="D103" t="s">
-        <v>379</v>
       </c>
       <c r="E103">
         <v>22</v>
@@ -38474,16 +38471,16 @@
     </row>
     <row r="104" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
+        <v>379</v>
+      </c>
+      <c r="B104" t="s">
         <v>380</v>
       </c>
-      <c r="B104" t="s">
+      <c r="C104" t="s">
+        <v>116</v>
+      </c>
+      <c r="D104" t="s">
         <v>381</v>
-      </c>
-      <c r="C104" t="s">
-        <v>116</v>
-      </c>
-      <c r="D104" t="s">
-        <v>382</v>
       </c>
       <c r="E104">
         <v>28</v>
@@ -38522,7 +38519,7 @@
         <v>232</v>
       </c>
       <c r="Q104" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="R104" t="s">
         <v>121</v>
@@ -38821,16 +38818,16 @@
     </row>
     <row r="105" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
+        <v>383</v>
+      </c>
+      <c r="B105" t="s">
         <v>384</v>
       </c>
-      <c r="B105" t="s">
+      <c r="C105" t="s">
+        <v>116</v>
+      </c>
+      <c r="D105" t="s">
         <v>385</v>
-      </c>
-      <c r="C105" t="s">
-        <v>116</v>
-      </c>
-      <c r="D105" t="s">
-        <v>386</v>
       </c>
       <c r="E105">
         <v>29</v>
@@ -38866,10 +38863,10 @@
         <v>61.29</v>
       </c>
       <c r="P105" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q105" t="s">
         <v>387</v>
-      </c>
-      <c r="Q105" t="s">
-        <v>388</v>
       </c>
       <c r="R105" t="s">
         <v>121</v>
@@ -39168,16 +39165,16 @@
     </row>
     <row r="106" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
+        <v>388</v>
+      </c>
+      <c r="B106" t="s">
         <v>389</v>
       </c>
-      <c r="B106" t="s">
+      <c r="C106" t="s">
+        <v>116</v>
+      </c>
+      <c r="D106" t="s">
         <v>390</v>
-      </c>
-      <c r="C106" t="s">
-        <v>116</v>
-      </c>
-      <c r="D106" t="s">
-        <v>391</v>
       </c>
       <c r="E106">
         <v>33</v>
@@ -39216,7 +39213,7 @@
         <v>145</v>
       </c>
       <c r="Q106" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="R106" t="s">
         <v>163</v>
@@ -39515,7 +39512,7 @@
     </row>
     <row r="107" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B107" t="s">
         <v>311</v>
@@ -39524,7 +39521,7 @@
         <v>116</v>
       </c>
       <c r="D107" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E107">
         <v>22</v>
@@ -39862,10 +39859,10 @@
     </row>
     <row r="108" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
+        <v>394</v>
+      </c>
+      <c r="B108" t="s">
         <v>395</v>
-      </c>
-      <c r="B108" t="s">
-        <v>396</v>
       </c>
       <c r="C108" t="s">
         <v>116</v>
@@ -40209,16 +40206,16 @@
     </row>
     <row r="109" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
+        <v>396</v>
+      </c>
+      <c r="B109" t="s">
         <v>397</v>
       </c>
-      <c r="B109" t="s">
+      <c r="C109" t="s">
+        <v>116</v>
+      </c>
+      <c r="D109" t="s">
         <v>398</v>
-      </c>
-      <c r="C109" t="s">
-        <v>116</v>
-      </c>
-      <c r="D109" t="s">
-        <v>399</v>
       </c>
       <c r="E109">
         <v>30</v>
@@ -40257,7 +40254,7 @@
         <v>131</v>
       </c>
       <c r="Q109" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="R109" t="s">
         <v>163</v>
@@ -40556,10 +40553,10 @@
     </row>
     <row r="110" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
+        <v>400</v>
+      </c>
+      <c r="B110" t="s">
         <v>401</v>
-      </c>
-      <c r="B110" t="s">
-        <v>402</v>
       </c>
       <c r="C110" t="s">
         <v>116</v>
@@ -40903,7 +40900,7 @@
     </row>
     <row r="111" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B111" t="s">
         <v>256</v>
@@ -41250,16 +41247,16 @@
     </row>
     <row r="112" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
+        <v>403</v>
+      </c>
+      <c r="B112" t="s">
         <v>404</v>
       </c>
-      <c r="B112" t="s">
+      <c r="C112" t="s">
+        <v>116</v>
+      </c>
+      <c r="D112" t="s">
         <v>405</v>
-      </c>
-      <c r="C112" t="s">
-        <v>116</v>
-      </c>
-      <c r="D112" t="s">
-        <v>406</v>
       </c>
       <c r="E112">
         <v>29</v>
@@ -41597,16 +41594,16 @@
     </row>
     <row r="113" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
+        <v>406</v>
+      </c>
+      <c r="B113" t="s">
         <v>407</v>
       </c>
-      <c r="B113" t="s">
+      <c r="C113" t="s">
+        <v>116</v>
+      </c>
+      <c r="D113" t="s">
         <v>408</v>
-      </c>
-      <c r="C113" t="s">
-        <v>116</v>
-      </c>
-      <c r="D113" t="s">
-        <v>409</v>
       </c>
       <c r="E113">
         <v>25</v>
@@ -41944,10 +41941,10 @@
     </row>
     <row r="114" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
+        <v>409</v>
+      </c>
+      <c r="B114" t="s">
         <v>410</v>
-      </c>
-      <c r="B114" t="s">
-        <v>411</v>
       </c>
       <c r="C114" t="s">
         <v>116</v>
@@ -42291,16 +42288,16 @@
     </row>
     <row r="115" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
+        <v>411</v>
+      </c>
+      <c r="B115" t="s">
         <v>412</v>
       </c>
-      <c r="B115" t="s">
+      <c r="C115" t="s">
+        <v>116</v>
+      </c>
+      <c r="D115" t="s">
         <v>413</v>
-      </c>
-      <c r="C115" t="s">
-        <v>116</v>
-      </c>
-      <c r="D115" t="s">
-        <v>414</v>
       </c>
       <c r="E115">
         <v>28</v>
@@ -42641,13 +42638,13 @@
         <v>221</v>
       </c>
       <c r="B116" t="s">
+        <v>414</v>
+      </c>
+      <c r="C116" t="s">
+        <v>116</v>
+      </c>
+      <c r="D116" t="s">
         <v>415</v>
-      </c>
-      <c r="C116" t="s">
-        <v>116</v>
-      </c>
-      <c r="D116" t="s">
-        <v>416</v>
       </c>
       <c r="E116">
         <v>25</v>
@@ -42985,16 +42982,16 @@
     </row>
     <row r="117" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
+        <v>416</v>
+      </c>
+      <c r="B117" t="s">
         <v>417</v>
       </c>
-      <c r="B117" t="s">
+      <c r="C117" t="s">
+        <v>116</v>
+      </c>
+      <c r="D117" t="s">
         <v>418</v>
-      </c>
-      <c r="C117" t="s">
-        <v>116</v>
-      </c>
-      <c r="D117" t="s">
-        <v>419</v>
       </c>
       <c r="E117">
         <v>22</v>
@@ -43332,7 +43329,7 @@
     </row>
     <row r="118" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B118" t="s">
         <v>305</v>
@@ -43679,16 +43676,16 @@
     </row>
     <row r="119" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
+        <v>420</v>
+      </c>
+      <c r="B119" t="s">
         <v>421</v>
       </c>
-      <c r="B119" t="s">
+      <c r="C119" t="s">
+        <v>116</v>
+      </c>
+      <c r="D119" t="s">
         <v>422</v>
-      </c>
-      <c r="C119" t="s">
-        <v>116</v>
-      </c>
-      <c r="D119" t="s">
-        <v>423</v>
       </c>
       <c r="E119">
         <v>33</v>
@@ -44026,7 +44023,7 @@
     </row>
     <row r="120" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B120" t="s">
         <v>305</v>
@@ -44035,7 +44032,7 @@
         <v>116</v>
       </c>
       <c r="D120" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E120">
         <v>29</v>
@@ -44373,10 +44370,10 @@
     </row>
     <row r="121" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
+        <v>425</v>
+      </c>
+      <c r="B121" t="s">
         <v>426</v>
-      </c>
-      <c r="B121" t="s">
-        <v>427</v>
       </c>
       <c r="C121" t="s">
         <v>116</v>
@@ -44720,16 +44717,16 @@
     </row>
     <row r="122" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
+        <v>427</v>
+      </c>
+      <c r="B122" t="s">
         <v>428</v>
       </c>
-      <c r="B122" t="s">
+      <c r="C122" t="s">
+        <v>116</v>
+      </c>
+      <c r="D122" t="s">
         <v>429</v>
-      </c>
-      <c r="C122" t="s">
-        <v>116</v>
-      </c>
-      <c r="D122" t="s">
-        <v>430</v>
       </c>
       <c r="E122">
         <v>25</v>
@@ -45067,7 +45064,7 @@
     </row>
     <row r="123" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B123" t="s">
         <v>349</v>
@@ -45076,7 +45073,7 @@
         <v>116</v>
       </c>
       <c r="D123" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E123">
         <v>24</v>
@@ -45414,7 +45411,7 @@
     </row>
     <row r="124" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B124" t="s">
         <v>322</v>
@@ -45423,7 +45420,7 @@
         <v>116</v>
       </c>
       <c r="D124" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E124">
         <v>23</v>
@@ -45761,10 +45758,10 @@
     </row>
     <row r="125" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B125" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C125" t="s">
         <v>116</v>
@@ -46108,7 +46105,7 @@
     </row>
     <row r="126" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B126" t="s">
         <v>301</v>
@@ -46117,7 +46114,7 @@
         <v>116</v>
       </c>
       <c r="D126" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E126">
         <v>26</v>
@@ -46455,16 +46452,16 @@
     </row>
     <row r="127" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
+        <v>437</v>
+      </c>
+      <c r="B127" t="s">
         <v>438</v>
       </c>
-      <c r="B127" t="s">
-        <v>439</v>
-      </c>
       <c r="C127" t="s">
         <v>116</v>
       </c>
       <c r="D127" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E127">
         <v>26</v>
@@ -46503,7 +46500,7 @@
         <v>232</v>
       </c>
       <c r="Q127" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="R127" t="s">
         <v>121</v>
@@ -46802,7 +46799,7 @@
     </row>
     <row r="128" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B128" t="s">
         <v>320</v>
@@ -47149,7 +47146,7 @@
     </row>
     <row r="129" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B129" t="s">
         <v>211</v>
@@ -47496,16 +47493,16 @@
     </row>
     <row r="130" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
+        <v>441</v>
+      </c>
+      <c r="B130" t="s">
         <v>442</v>
       </c>
-      <c r="B130" t="s">
+      <c r="C130" t="s">
+        <v>116</v>
+      </c>
+      <c r="D130" t="s">
         <v>443</v>
-      </c>
-      <c r="C130" t="s">
-        <v>116</v>
-      </c>
-      <c r="D130" t="s">
-        <v>444</v>
       </c>
       <c r="E130">
         <v>36</v>
@@ -47843,7 +47840,7 @@
     </row>
     <row r="131" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B131" t="s">
         <v>281</v>
@@ -48190,16 +48187,16 @@
     </row>
     <row r="132" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
+        <v>445</v>
+      </c>
+      <c r="B132" t="s">
+        <v>401</v>
+      </c>
+      <c r="C132" t="s">
+        <v>116</v>
+      </c>
+      <c r="D132" t="s">
         <v>446</v>
-      </c>
-      <c r="B132" t="s">
-        <v>402</v>
-      </c>
-      <c r="C132" t="s">
-        <v>116</v>
-      </c>
-      <c r="D132" t="s">
-        <v>447</v>
       </c>
       <c r="E132">
         <v>30</v>
@@ -48537,10 +48534,10 @@
     </row>
     <row r="133" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
+        <v>447</v>
+      </c>
+      <c r="B133" t="s">
         <v>448</v>
-      </c>
-      <c r="B133" t="s">
-        <v>449</v>
       </c>
       <c r="C133" t="s">
         <v>116</v>
@@ -48884,16 +48881,16 @@
     </row>
     <row r="134" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
+        <v>449</v>
+      </c>
+      <c r="B134" t="s">
         <v>450</v>
       </c>
-      <c r="B134" t="s">
+      <c r="C134" t="s">
+        <v>116</v>
+      </c>
+      <c r="D134" t="s">
         <v>451</v>
-      </c>
-      <c r="C134" t="s">
-        <v>116</v>
-      </c>
-      <c r="D134" t="s">
-        <v>452</v>
       </c>
       <c r="E134">
         <v>29</v>
@@ -48929,10 +48926,10 @@
         <v>48.15</v>
       </c>
       <c r="P134" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Q134" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="R134" t="s">
         <v>121</v>
@@ -49231,7 +49228,7 @@
     </row>
     <row r="135" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B135" t="s">
         <v>252</v>
@@ -49276,10 +49273,10 @@
         <v>61.11</v>
       </c>
       <c r="P135" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Q135" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="R135" t="s">
         <v>163</v>
@@ -49578,16 +49575,16 @@
     </row>
     <row r="136" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
+        <v>454</v>
+      </c>
+      <c r="B136" t="s">
         <v>455</v>
       </c>
-      <c r="B136" t="s">
+      <c r="C136" t="s">
+        <v>116</v>
+      </c>
+      <c r="D136" t="s">
         <v>456</v>
-      </c>
-      <c r="C136" t="s">
-        <v>116</v>
-      </c>
-      <c r="D136" t="s">
-        <v>457</v>
       </c>
       <c r="E136">
         <v>25</v>
@@ -49623,10 +49620,10 @@
         <v>50</v>
       </c>
       <c r="P136" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Q136" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="R136" t="s">
         <v>163</v>
@@ -49925,16 +49922,16 @@
     </row>
     <row r="137" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
+        <v>457</v>
+      </c>
+      <c r="B137" t="s">
+        <v>389</v>
+      </c>
+      <c r="C137" t="s">
+        <v>116</v>
+      </c>
+      <c r="D137" t="s">
         <v>458</v>
-      </c>
-      <c r="B137" t="s">
-        <v>390</v>
-      </c>
-      <c r="C137" t="s">
-        <v>116</v>
-      </c>
-      <c r="D137" t="s">
-        <v>459</v>
       </c>
       <c r="E137">
         <v>29</v>
@@ -50272,7 +50269,7 @@
     </row>
     <row r="138" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B138" t="s">
         <v>322</v>
@@ -50619,10 +50616,10 @@
     </row>
     <row r="139" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
+        <v>460</v>
+      </c>
+      <c r="B139" t="s">
         <v>461</v>
-      </c>
-      <c r="B139" t="s">
-        <v>462</v>
       </c>
       <c r="C139" t="s">
         <v>116</v>
@@ -50966,16 +50963,16 @@
     </row>
     <row r="140" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
+        <v>462</v>
+      </c>
+      <c r="B140" t="s">
+        <v>412</v>
+      </c>
+      <c r="C140" t="s">
+        <v>116</v>
+      </c>
+      <c r="D140" t="s">
         <v>463</v>
-      </c>
-      <c r="B140" t="s">
-        <v>413</v>
-      </c>
-      <c r="C140" t="s">
-        <v>116</v>
-      </c>
-      <c r="D140" t="s">
-        <v>464</v>
       </c>
       <c r="E140">
         <v>23</v>
@@ -51313,10 +51310,10 @@
     </row>
     <row r="141" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B141" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C141" t="s">
         <v>116</v>
@@ -51660,10 +51657,10 @@
     </row>
     <row r="142" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B142" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C142" t="s">
         <v>116</v>
@@ -51705,10 +51702,10 @@
         <v>56</v>
       </c>
       <c r="P142" t="s">
+        <v>466</v>
+      </c>
+      <c r="Q142" t="s">
         <v>467</v>
-      </c>
-      <c r="Q142" t="s">
-        <v>468</v>
       </c>
       <c r="R142" t="s">
         <v>121</v>
@@ -52007,7 +52004,7 @@
     </row>
     <row r="143" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B143" t="s">
         <v>305</v>
@@ -52354,10 +52351,10 @@
     </row>
     <row r="144" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
+        <v>469</v>
+      </c>
+      <c r="B144" t="s">
         <v>470</v>
-      </c>
-      <c r="B144" t="s">
-        <v>471</v>
       </c>
       <c r="C144" t="s">
         <v>116</v>
@@ -52399,10 +52396,10 @@
         <v>42.42</v>
       </c>
       <c r="P144" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Q144" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="R144" t="s">
         <v>121</v>
@@ -52701,16 +52698,16 @@
     </row>
     <row r="145" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
+        <v>472</v>
+      </c>
+      <c r="B145" t="s">
         <v>473</v>
       </c>
-      <c r="B145" t="s">
+      <c r="C145" t="s">
+        <v>116</v>
+      </c>
+      <c r="D145" t="s">
         <v>474</v>
-      </c>
-      <c r="C145" t="s">
-        <v>116</v>
-      </c>
-      <c r="D145" t="s">
-        <v>475</v>
       </c>
       <c r="E145">
         <v>36</v>
@@ -53048,10 +53045,10 @@
     </row>
     <row r="146" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B146" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C146" t="s">
         <v>116</v>
@@ -53395,10 +53392,10 @@
     </row>
     <row r="147" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B147" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C147" t="s">
         <v>116</v>
@@ -53742,10 +53739,10 @@
     </row>
     <row r="148" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
+        <v>477</v>
+      </c>
+      <c r="B148" t="s">
         <v>478</v>
-      </c>
-      <c r="B148" t="s">
-        <v>479</v>
       </c>
       <c r="C148" t="s">
         <v>116</v>
@@ -53787,10 +53784,10 @@
         <v>50.5</v>
       </c>
       <c r="P148" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Q148" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="R148" t="s">
         <v>121</v>
@@ -54089,16 +54086,16 @@
     </row>
     <row r="149" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
+        <v>479</v>
+      </c>
+      <c r="B149" t="s">
         <v>480</v>
       </c>
-      <c r="B149" t="s">
+      <c r="C149" t="s">
+        <v>116</v>
+      </c>
+      <c r="D149" t="s">
         <v>481</v>
-      </c>
-      <c r="C149" t="s">
-        <v>116</v>
-      </c>
-      <c r="D149" t="s">
-        <v>482</v>
       </c>
       <c r="E149">
         <v>29</v>
@@ -54436,16 +54433,16 @@
     </row>
     <row r="150" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
+        <v>482</v>
+      </c>
+      <c r="B150" t="s">
+        <v>438</v>
+      </c>
+      <c r="C150" t="s">
+        <v>116</v>
+      </c>
+      <c r="D150" t="s">
         <v>483</v>
-      </c>
-      <c r="B150" t="s">
-        <v>439</v>
-      </c>
-      <c r="C150" t="s">
-        <v>116</v>
-      </c>
-      <c r="D150" t="s">
-        <v>484</v>
       </c>
       <c r="E150">
         <v>23</v>
@@ -54783,16 +54780,16 @@
     </row>
     <row r="151" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
+        <v>484</v>
+      </c>
+      <c r="B151" t="s">
         <v>485</v>
       </c>
-      <c r="B151" t="s">
+      <c r="C151" t="s">
+        <v>116</v>
+      </c>
+      <c r="D151" t="s">
         <v>486</v>
-      </c>
-      <c r="C151" t="s">
-        <v>116</v>
-      </c>
-      <c r="D151" t="s">
-        <v>487</v>
       </c>
       <c r="E151">
         <v>32</v>
@@ -55130,10 +55127,10 @@
     </row>
     <row r="152" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
+        <v>487</v>
+      </c>
+      <c r="B152" t="s">
         <v>488</v>
-      </c>
-      <c r="B152" t="s">
-        <v>489</v>
       </c>
       <c r="C152" t="s">
         <v>116</v>
@@ -55477,7 +55474,7 @@
     </row>
     <row r="153" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B153" t="s">
         <v>349</v>
@@ -55824,16 +55821,16 @@
     </row>
     <row r="154" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
+        <v>490</v>
+      </c>
+      <c r="B154" t="s">
         <v>491</v>
       </c>
-      <c r="B154" t="s">
+      <c r="C154" t="s">
+        <v>116</v>
+      </c>
+      <c r="D154" t="s">
         <v>492</v>
-      </c>
-      <c r="C154" t="s">
-        <v>116</v>
-      </c>
-      <c r="D154" t="s">
-        <v>493</v>
       </c>
       <c r="E154">
         <v>26</v>
@@ -56171,7 +56168,7 @@
     </row>
     <row r="155" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B155" t="s">
         <v>320</v>
@@ -56518,16 +56515,16 @@
     </row>
     <row r="156" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
+        <v>494</v>
+      </c>
+      <c r="B156" t="s">
         <v>495</v>
       </c>
-      <c r="B156" t="s">
+      <c r="C156" t="s">
+        <v>116</v>
+      </c>
+      <c r="D156" t="s">
         <v>496</v>
-      </c>
-      <c r="C156" t="s">
-        <v>116</v>
-      </c>
-      <c r="D156" t="s">
-        <v>497</v>
       </c>
       <c r="E156">
         <v>24</v>
@@ -56563,10 +56560,10 @@
         <v>32.08</v>
       </c>
       <c r="P156" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q156" t="s">
         <v>498</v>
-      </c>
-      <c r="Q156" t="s">
-        <v>499</v>
       </c>
       <c r="R156" t="s">
         <v>163</v>
@@ -56865,7 +56862,7 @@
     </row>
     <row r="157" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B157" t="s">
         <v>349</v>
@@ -56874,7 +56871,7 @@
         <v>116</v>
       </c>
       <c r="D157" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E157">
         <v>30</v>
@@ -57212,10 +57209,10 @@
     </row>
     <row r="158" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
+        <v>500</v>
+      </c>
+      <c r="B158" t="s">
         <v>501</v>
-      </c>
-      <c r="B158" t="s">
-        <v>502</v>
       </c>
       <c r="C158" t="s">
         <v>116</v>
@@ -57559,10 +57556,10 @@
     </row>
     <row r="159" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
+        <v>502</v>
+      </c>
+      <c r="B159" t="s">
         <v>503</v>
-      </c>
-      <c r="B159" t="s">
-        <v>504</v>
       </c>
       <c r="C159" t="s">
         <v>116</v>
@@ -57607,7 +57604,7 @@
         <v>145</v>
       </c>
       <c r="Q159" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="R159" t="s">
         <v>163</v>
@@ -57906,16 +57903,16 @@
     </row>
     <row r="160" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
+        <v>504</v>
+      </c>
+      <c r="B160" t="s">
+        <v>448</v>
+      </c>
+      <c r="C160" t="s">
+        <v>116</v>
+      </c>
+      <c r="D160" t="s">
         <v>505</v>
-      </c>
-      <c r="B160" t="s">
-        <v>449</v>
-      </c>
-      <c r="C160" t="s">
-        <v>116</v>
-      </c>
-      <c r="D160" t="s">
-        <v>506</v>
       </c>
       <c r="E160">
         <v>22</v>
@@ -58253,10 +58250,10 @@
     </row>
     <row r="161" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
+        <v>506</v>
+      </c>
+      <c r="B161" t="s">
         <v>507</v>
-      </c>
-      <c r="B161" t="s">
-        <v>508</v>
       </c>
       <c r="C161" t="s">
         <v>116</v>
@@ -58600,16 +58597,16 @@
     </row>
     <row r="162" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
+        <v>508</v>
+      </c>
+      <c r="B162" t="s">
         <v>509</v>
       </c>
-      <c r="B162" t="s">
+      <c r="C162" t="s">
+        <v>116</v>
+      </c>
+      <c r="D162" t="s">
         <v>510</v>
-      </c>
-      <c r="C162" t="s">
-        <v>116</v>
-      </c>
-      <c r="D162" t="s">
-        <v>511</v>
       </c>
       <c r="E162">
         <v>28</v>
@@ -58947,16 +58944,16 @@
     </row>
     <row r="163" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
+        <v>511</v>
+      </c>
+      <c r="B163" t="s">
         <v>512</v>
       </c>
-      <c r="B163" t="s">
+      <c r="C163" t="s">
+        <v>116</v>
+      </c>
+      <c r="D163" t="s">
         <v>513</v>
-      </c>
-      <c r="C163" t="s">
-        <v>116</v>
-      </c>
-      <c r="D163" t="s">
-        <v>514</v>
       </c>
       <c r="E163">
         <v>31</v>
@@ -59294,16 +59291,16 @@
     </row>
     <row r="164" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
+        <v>514</v>
+      </c>
+      <c r="B164" t="s">
+        <v>491</v>
+      </c>
+      <c r="C164" t="s">
+        <v>116</v>
+      </c>
+      <c r="D164" t="s">
         <v>515</v>
-      </c>
-      <c r="B164" t="s">
-        <v>492</v>
-      </c>
-      <c r="C164" t="s">
-        <v>116</v>
-      </c>
-      <c r="D164" t="s">
-        <v>516</v>
       </c>
       <c r="E164">
         <v>32</v>
@@ -59342,7 +59339,7 @@
         <v>131</v>
       </c>
       <c r="Q164" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="R164" t="s">
         <v>121</v>
@@ -59641,16 +59638,16 @@
     </row>
     <row r="165" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
+        <v>517</v>
+      </c>
+      <c r="B165" t="s">
         <v>518</v>
       </c>
-      <c r="B165" t="s">
+      <c r="C165" t="s">
+        <v>116</v>
+      </c>
+      <c r="D165" t="s">
         <v>519</v>
-      </c>
-      <c r="C165" t="s">
-        <v>116</v>
-      </c>
-      <c r="D165" t="s">
-        <v>520</v>
       </c>
       <c r="E165">
         <v>28</v>
@@ -59988,16 +59985,16 @@
     </row>
     <row r="166" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
+        <v>520</v>
+      </c>
+      <c r="B166" t="s">
         <v>521</v>
       </c>
-      <c r="B166" t="s">
+      <c r="C166" t="s">
+        <v>116</v>
+      </c>
+      <c r="D166" t="s">
         <v>522</v>
-      </c>
-      <c r="C166" t="s">
-        <v>116</v>
-      </c>
-      <c r="D166" t="s">
-        <v>523</v>
       </c>
       <c r="E166">
         <v>27</v>
@@ -60335,16 +60332,16 @@
     </row>
     <row r="167" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
+        <v>523</v>
+      </c>
+      <c r="B167" t="s">
         <v>524</v>
       </c>
-      <c r="B167" t="s">
+      <c r="C167" t="s">
+        <v>116</v>
+      </c>
+      <c r="D167" t="s">
         <v>525</v>
-      </c>
-      <c r="C167" t="s">
-        <v>116</v>
-      </c>
-      <c r="D167" t="s">
-        <v>526</v>
       </c>
       <c r="E167">
         <v>22</v>
@@ -60682,16 +60679,16 @@
     </row>
     <row r="168" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
+        <v>526</v>
+      </c>
+      <c r="B168" t="s">
         <v>527</v>
       </c>
-      <c r="B168" t="s">
+      <c r="C168" t="s">
+        <v>116</v>
+      </c>
+      <c r="D168" t="s">
         <v>528</v>
-      </c>
-      <c r="C168" t="s">
-        <v>116</v>
-      </c>
-      <c r="D168" t="s">
-        <v>529</v>
       </c>
       <c r="E168">
         <v>29</v>
@@ -61029,10 +61026,10 @@
     </row>
     <row r="169" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B169" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C169" t="s">
         <v>116</v>
@@ -61376,16 +61373,16 @@
     </row>
     <row r="170" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
+        <v>530</v>
+      </c>
+      <c r="B170" t="s">
         <v>531</v>
       </c>
-      <c r="B170" t="s">
+      <c r="C170" t="s">
+        <v>116</v>
+      </c>
+      <c r="D170" t="s">
         <v>532</v>
-      </c>
-      <c r="C170" t="s">
-        <v>116</v>
-      </c>
-      <c r="D170" t="s">
-        <v>533</v>
       </c>
       <c r="E170">
         <v>24</v>
@@ -61421,10 +61418,10 @@
         <v>35.42</v>
       </c>
       <c r="P170" t="s">
+        <v>533</v>
+      </c>
+      <c r="Q170" t="s">
         <v>534</v>
-      </c>
-      <c r="Q170" t="s">
-        <v>535</v>
       </c>
       <c r="R170" t="s">
         <v>121</v>
@@ -61723,16 +61720,16 @@
     </row>
     <row r="171" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
+        <v>535</v>
+      </c>
+      <c r="B171" t="s">
+        <v>509</v>
+      </c>
+      <c r="C171" t="s">
+        <v>116</v>
+      </c>
+      <c r="D171" t="s">
         <v>536</v>
-      </c>
-      <c r="B171" t="s">
-        <v>510</v>
-      </c>
-      <c r="C171" t="s">
-        <v>116</v>
-      </c>
-      <c r="D171" t="s">
-        <v>537</v>
       </c>
       <c r="E171">
         <v>30</v>
@@ -61741,7 +61738,7 @@
         <v>1800000</v>
       </c>
       <c r="G171" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H171">
         <v>2</v>
@@ -62070,16 +62067,16 @@
     </row>
     <row r="172" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B172" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C172" t="s">
         <v>116</v>
       </c>
       <c r="D172" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E172">
         <v>22</v>
@@ -62417,16 +62414,16 @@
     </row>
     <row r="173" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
+        <v>539</v>
+      </c>
+      <c r="B173" t="s">
         <v>540</v>
       </c>
-      <c r="B173" t="s">
-        <v>541</v>
-      </c>
       <c r="C173" t="s">
         <v>116</v>
       </c>
       <c r="D173" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E173">
         <v>24</v>
@@ -62764,10 +62761,10 @@
     </row>
     <row r="174" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
+        <v>541</v>
+      </c>
+      <c r="B174" t="s">
         <v>542</v>
-      </c>
-      <c r="B174" t="s">
-        <v>543</v>
       </c>
       <c r="C174" t="s">
         <v>116</v>
@@ -62809,10 +62806,10 @@
         <v>55.56</v>
       </c>
       <c r="P174" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Q174" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="R174" t="s">
         <v>121</v>
@@ -63111,7 +63108,7 @@
     </row>
     <row r="175" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B175" t="s">
         <v>263</v>
@@ -63120,7 +63117,7 @@
         <v>116</v>
       </c>
       <c r="D175" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E175">
         <v>31</v>
@@ -63458,10 +63455,10 @@
     </row>
     <row r="176" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
+        <v>545</v>
+      </c>
+      <c r="B176" t="s">
         <v>546</v>
-      </c>
-      <c r="B176" t="s">
-        <v>547</v>
       </c>
       <c r="C176" t="s">
         <v>116</v>
@@ -63805,16 +63802,16 @@
     </row>
     <row r="177" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
+        <v>547</v>
+      </c>
+      <c r="B177" t="s">
         <v>548</v>
       </c>
-      <c r="B177" t="s">
+      <c r="C177" t="s">
+        <v>116</v>
+      </c>
+      <c r="D177" t="s">
         <v>549</v>
-      </c>
-      <c r="C177" t="s">
-        <v>116</v>
-      </c>
-      <c r="D177" t="s">
-        <v>550</v>
       </c>
       <c r="E177">
         <v>21</v>
@@ -63850,10 +63847,10 @@
         <v>35.9</v>
       </c>
       <c r="P177" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Q177" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="R177" t="s">
         <v>121</v>
@@ -64152,16 +64149,16 @@
     </row>
     <row r="178" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
+        <v>550</v>
+      </c>
+      <c r="B178" t="s">
         <v>551</v>
       </c>
-      <c r="B178" t="s">
-        <v>552</v>
-      </c>
       <c r="C178" t="s">
         <v>116</v>
       </c>
       <c r="D178" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E178">
         <v>24</v>
@@ -64200,7 +64197,7 @@
         <v>131</v>
       </c>
       <c r="Q178" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="R178" t="s">
         <v>163</v>
@@ -64499,16 +64496,16 @@
     </row>
     <row r="179" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
+        <v>552</v>
+      </c>
+      <c r="B179" t="s">
         <v>553</v>
       </c>
-      <c r="B179" t="s">
-        <v>554</v>
-      </c>
       <c r="C179" t="s">
         <v>116</v>
       </c>
       <c r="D179" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E179">
         <v>33</v>
@@ -64846,16 +64843,16 @@
     </row>
     <row r="180" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
+        <v>554</v>
+      </c>
+      <c r="B180" t="s">
+        <v>401</v>
+      </c>
+      <c r="C180" t="s">
+        <v>116</v>
+      </c>
+      <c r="D180" t="s">
         <v>555</v>
-      </c>
-      <c r="B180" t="s">
-        <v>402</v>
-      </c>
-      <c r="C180" t="s">
-        <v>116</v>
-      </c>
-      <c r="D180" t="s">
-        <v>556</v>
       </c>
       <c r="E180">
         <v>33</v>
@@ -64891,10 +64888,10 @@
         <v>32.880000000000003</v>
       </c>
       <c r="P180" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Q180" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="R180" t="s">
         <v>121</v>
@@ -65193,10 +65190,10 @@
     </row>
     <row r="181" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
+        <v>557</v>
+      </c>
+      <c r="B181" t="s">
         <v>558</v>
-      </c>
-      <c r="B181" t="s">
-        <v>559</v>
       </c>
       <c r="C181" t="s">
         <v>116</v>
@@ -65238,10 +65235,10 @@
         <v>31.4</v>
       </c>
       <c r="P181" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="Q181" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="R181" t="s">
         <v>163</v>
@@ -65540,10 +65537,10 @@
     </row>
     <row r="182" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
+        <v>560</v>
+      </c>
+      <c r="B182" t="s">
         <v>561</v>
-      </c>
-      <c r="B182" t="s">
-        <v>562</v>
       </c>
       <c r="C182" t="s">
         <v>116</v>
@@ -65588,7 +65585,7 @@
         <v>309</v>
       </c>
       <c r="Q182" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="R182" t="s">
         <v>121</v>
@@ -65887,10 +65884,10 @@
     </row>
     <row r="183" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
+        <v>563</v>
+      </c>
+      <c r="B183" t="s">
         <v>564</v>
-      </c>
-      <c r="B183" t="s">
-        <v>565</v>
       </c>
       <c r="C183" t="s">
         <v>116</v>
@@ -66234,16 +66231,16 @@
     </row>
     <row r="184" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
+        <v>565</v>
+      </c>
+      <c r="B184" t="s">
         <v>566</v>
       </c>
-      <c r="B184" t="s">
+      <c r="C184" t="s">
+        <v>116</v>
+      </c>
+      <c r="D184" t="s">
         <v>567</v>
-      </c>
-      <c r="C184" t="s">
-        <v>116</v>
-      </c>
-      <c r="D184" t="s">
-        <v>568</v>
       </c>
       <c r="E184">
         <v>29</v>
@@ -66581,10 +66578,10 @@
     </row>
     <row r="185" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B185" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C185" t="s">
         <v>116</v>
@@ -66928,16 +66925,16 @@
     </row>
     <row r="186" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
+        <v>569</v>
+      </c>
+      <c r="B186" t="s">
         <v>570</v>
       </c>
-      <c r="B186" t="s">
-        <v>571</v>
-      </c>
       <c r="C186" t="s">
         <v>116</v>
       </c>
       <c r="D186" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E186">
         <v>31</v>
@@ -66946,7 +66943,7 @@
         <v>1300000</v>
       </c>
       <c r="G186" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H186">
         <v>3</v>
@@ -67275,16 +67272,16 @@
     </row>
     <row r="187" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
+        <v>571</v>
+      </c>
+      <c r="B187" t="s">
+        <v>521</v>
+      </c>
+      <c r="C187" t="s">
+        <v>116</v>
+      </c>
+      <c r="D187" t="s">
         <v>572</v>
-      </c>
-      <c r="B187" t="s">
-        <v>522</v>
-      </c>
-      <c r="C187" t="s">
-        <v>116</v>
-      </c>
-      <c r="D187" t="s">
-        <v>573</v>
       </c>
       <c r="E187">
         <v>29</v>
@@ -67622,10 +67619,10 @@
     </row>
     <row r="188" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
+        <v>573</v>
+      </c>
+      <c r="B188" t="s">
         <v>574</v>
-      </c>
-      <c r="B188" t="s">
-        <v>575</v>
       </c>
       <c r="C188" t="s">
         <v>116</v>
@@ -67667,10 +67664,10 @@
         <v>36.36</v>
       </c>
       <c r="P188" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Q188" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="R188" t="s">
         <v>163</v>
@@ -67969,10 +67966,10 @@
     </row>
     <row r="189" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B189" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C189" t="s">
         <v>116</v>
@@ -68316,10 +68313,10 @@
     </row>
     <row r="190" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B190" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C190" t="s">
         <v>116</v>
@@ -68663,10 +68660,10 @@
     </row>
     <row r="191" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B191" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C191" t="s">
         <v>116</v>
@@ -69010,10 +69007,10 @@
     </row>
     <row r="192" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
+        <v>578</v>
+      </c>
+      <c r="B192" t="s">
         <v>579</v>
-      </c>
-      <c r="B192" t="s">
-        <v>580</v>
       </c>
       <c r="C192" t="s">
         <v>116</v>
@@ -69055,10 +69052,10 @@
         <v>55.06</v>
       </c>
       <c r="P192" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Q192" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="R192" t="s">
         <v>163</v>
@@ -69357,10 +69354,10 @@
     </row>
     <row r="193" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B193" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C193" t="s">
         <v>116</v>
@@ -69402,10 +69399,10 @@
         <v>100</v>
       </c>
       <c r="P193" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Q193" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="R193" t="s">
         <v>163</v>
@@ -69704,10 +69701,10 @@
     </row>
     <row r="194" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
+        <v>581</v>
+      </c>
+      <c r="B194" t="s">
         <v>582</v>
-      </c>
-      <c r="B194" t="s">
-        <v>583</v>
       </c>
       <c r="C194" t="s">
         <v>116</v>
@@ -69749,10 +69746,10 @@
         <v>36.840000000000003</v>
       </c>
       <c r="P194" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Q194" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="R194" t="s">
         <v>163</v>
@@ -70051,10 +70048,10 @@
     </row>
     <row r="195" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B195" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C195" t="s">
         <v>116</v>
@@ -70398,10 +70395,10 @@
     </row>
     <row r="196" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B196" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C196" t="s">
         <v>116</v>
@@ -70443,10 +70440,10 @@
         <v>64.709999999999994</v>
       </c>
       <c r="P196" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Q196" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="R196" t="s">
         <v>121</v>
@@ -70745,16 +70742,16 @@
     </row>
     <row r="197" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
+        <v>585</v>
+      </c>
+      <c r="B197" t="s">
         <v>586</v>
       </c>
-      <c r="B197" t="s">
+      <c r="C197" t="s">
+        <v>116</v>
+      </c>
+      <c r="D197" t="s">
         <v>587</v>
-      </c>
-      <c r="C197" t="s">
-        <v>116</v>
-      </c>
-      <c r="D197" t="s">
-        <v>588</v>
       </c>
       <c r="E197">
         <v>27</v>
@@ -71092,10 +71089,10 @@
     </row>
     <row r="198" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
+        <v>588</v>
+      </c>
+      <c r="B198" t="s">
         <v>589</v>
-      </c>
-      <c r="B198" t="s">
-        <v>590</v>
       </c>
       <c r="C198" t="s">
         <v>116</v>
@@ -71140,7 +71137,7 @@
         <v>119</v>
       </c>
       <c r="Q198" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="R198" t="s">
         <v>121</v>
@@ -71439,10 +71436,10 @@
     </row>
     <row r="199" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
+        <v>591</v>
+      </c>
+      <c r="B199" t="s">
         <v>592</v>
-      </c>
-      <c r="B199" t="s">
-        <v>593</v>
       </c>
       <c r="C199" t="s">
         <v>116</v>
@@ -71487,7 +71484,7 @@
         <v>309</v>
       </c>
       <c r="Q199" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="R199" t="s">
         <v>121</v>
@@ -71786,16 +71783,16 @@
     </row>
     <row r="200" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B200" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C200" t="s">
         <v>116</v>
       </c>
       <c r="D200" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E200">
         <v>35</v>
@@ -71831,10 +71828,10 @@
         <v>52.99</v>
       </c>
       <c r="P200" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Q200" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="R200" t="s">
         <v>121</v>
@@ -72133,16 +72130,16 @@
     </row>
     <row r="201" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
+        <v>595</v>
+      </c>
+      <c r="B201" t="s">
+        <v>582</v>
+      </c>
+      <c r="C201" t="s">
+        <v>116</v>
+      </c>
+      <c r="D201" t="s">
         <v>596</v>
-      </c>
-      <c r="B201" t="s">
-        <v>583</v>
-      </c>
-      <c r="C201" t="s">
-        <v>116</v>
-      </c>
-      <c r="D201" t="s">
-        <v>597</v>
       </c>
       <c r="E201">
         <v>30</v>
@@ -72178,10 +72175,10 @@
         <v>41.33</v>
       </c>
       <c r="P201" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Q201" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="R201" t="s">
         <v>121</v>
@@ -72480,10 +72477,10 @@
     </row>
     <row r="202" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
+        <v>597</v>
+      </c>
+      <c r="B202" t="s">
         <v>598</v>
-      </c>
-      <c r="B202" t="s">
-        <v>599</v>
       </c>
       <c r="C202" t="s">
         <v>116</v>
@@ -72827,16 +72824,16 @@
     </row>
     <row r="203" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
+        <v>599</v>
+      </c>
+      <c r="B203" t="s">
         <v>600</v>
       </c>
-      <c r="B203" t="s">
+      <c r="C203" t="s">
+        <v>116</v>
+      </c>
+      <c r="D203" t="s">
         <v>601</v>
-      </c>
-      <c r="C203" t="s">
-        <v>116</v>
-      </c>
-      <c r="D203" t="s">
-        <v>602</v>
       </c>
       <c r="E203">
         <v>25</v>
@@ -72872,10 +72869,10 @@
         <v>51.15</v>
       </c>
       <c r="P203" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="Q203" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="R203" t="s">
         <v>163</v>
@@ -73174,10 +73171,10 @@
     </row>
     <row r="204" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
+        <v>603</v>
+      </c>
+      <c r="B204" t="s">
         <v>604</v>
-      </c>
-      <c r="B204" t="s">
-        <v>605</v>
       </c>
       <c r="C204" t="s">
         <v>116</v>
@@ -73521,10 +73518,10 @@
     </row>
     <row r="205" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
+        <v>605</v>
+      </c>
+      <c r="B205" t="s">
         <v>606</v>
-      </c>
-      <c r="B205" t="s">
-        <v>607</v>
       </c>
       <c r="C205" t="s">
         <v>116</v>
@@ -73569,7 +73566,7 @@
         <v>232</v>
       </c>
       <c r="Q205" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="R205" t="s">
         <v>163</v>
@@ -73868,16 +73865,16 @@
     </row>
     <row r="206" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
+        <v>608</v>
+      </c>
+      <c r="B206" t="s">
+        <v>442</v>
+      </c>
+      <c r="C206" t="s">
+        <v>116</v>
+      </c>
+      <c r="D206" t="s">
         <v>609</v>
-      </c>
-      <c r="B206" t="s">
-        <v>443</v>
-      </c>
-      <c r="C206" t="s">
-        <v>116</v>
-      </c>
-      <c r="D206" t="s">
-        <v>610</v>
       </c>
       <c r="E206">
         <v>37</v>
@@ -74215,16 +74212,16 @@
     </row>
     <row r="207" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
+        <v>610</v>
+      </c>
+      <c r="B207" t="s">
+        <v>574</v>
+      </c>
+      <c r="C207" t="s">
+        <v>116</v>
+      </c>
+      <c r="D207" t="s">
         <v>611</v>
-      </c>
-      <c r="B207" t="s">
-        <v>575</v>
-      </c>
-      <c r="C207" t="s">
-        <v>116</v>
-      </c>
-      <c r="D207" t="s">
-        <v>612</v>
       </c>
       <c r="E207">
         <v>24</v>
@@ -74233,7 +74230,7 @@
         <v>850000</v>
       </c>
       <c r="G207" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H207">
         <v>3</v>
@@ -74263,7 +74260,7 @@
         <v>254</v>
       </c>
       <c r="Q207" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="R207" t="s">
         <v>121</v>
@@ -74562,10 +74559,10 @@
     </row>
     <row r="208" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B208" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C208" t="s">
         <v>116</v>
@@ -74607,10 +74604,10 @@
         <v>33.049999999999997</v>
       </c>
       <c r="P208" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Q208" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="R208" t="s">
         <v>163</v>
@@ -74909,10 +74906,10 @@
     </row>
     <row r="209" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
+        <v>614</v>
+      </c>
+      <c r="B209" t="s">
         <v>615</v>
-      </c>
-      <c r="B209" t="s">
-        <v>616</v>
       </c>
       <c r="C209" t="s">
         <v>116</v>
@@ -74954,10 +74951,10 @@
         <v>57.65</v>
       </c>
       <c r="P209" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Q209" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="R209" t="s">
         <v>121</v>
@@ -75256,10 +75253,10 @@
     </row>
     <row r="210" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
+        <v>616</v>
+      </c>
+      <c r="B210" t="s">
         <v>617</v>
-      </c>
-      <c r="B210" t="s">
-        <v>618</v>
       </c>
       <c r="C210" t="s">
         <v>116</v>
@@ -75301,10 +75298,10 @@
         <v>56.56</v>
       </c>
       <c r="P210" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="Q210" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="R210" t="s">
         <v>121</v>
@@ -75603,10 +75600,10 @@
     </row>
     <row r="211" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
+        <v>618</v>
+      </c>
+      <c r="B211" t="s">
         <v>619</v>
-      </c>
-      <c r="B211" t="s">
-        <v>620</v>
       </c>
       <c r="C211" t="s">
         <v>116</v>
@@ -75651,7 +75648,7 @@
         <v>131</v>
       </c>
       <c r="Q211" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="R211" t="s">
         <v>121</v>
@@ -75950,10 +75947,10 @@
     </row>
     <row r="212" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B212" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C212" t="s">
         <v>116</v>
@@ -75995,10 +75992,10 @@
         <v>65.12</v>
       </c>
       <c r="P212" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="Q212" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="R212" t="s">
         <v>163</v>
@@ -76297,10 +76294,10 @@
     </row>
     <row r="213" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B213" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C213" t="s">
         <v>116</v>
@@ -76342,10 +76339,10 @@
         <v>116</v>
       </c>
       <c r="P213" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Q213" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="R213" t="s">
         <v>121</v>
@@ -76644,10 +76641,10 @@
     </row>
     <row r="214" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
+        <v>622</v>
+      </c>
+      <c r="B214" t="s">
         <v>623</v>
-      </c>
-      <c r="B214" t="s">
-        <v>624</v>
       </c>
       <c r="C214" t="s">
         <v>116</v>
@@ -76689,10 +76686,10 @@
         <v>69.23</v>
       </c>
       <c r="P214" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="Q214" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="R214" t="s">
         <v>121</v>
@@ -76991,7 +76988,7 @@
     </row>
     <row r="215" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B215" t="s">
         <v>322</v>
@@ -77000,7 +76997,7 @@
         <v>116</v>
       </c>
       <c r="D215" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E215">
         <v>24</v>
@@ -77039,7 +77036,7 @@
         <v>131</v>
       </c>
       <c r="Q215" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="R215" t="s">
         <v>121</v>
@@ -77338,16 +77335,16 @@
     </row>
     <row r="216" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
+        <v>626</v>
+      </c>
+      <c r="B216" t="s">
+        <v>491</v>
+      </c>
+      <c r="C216" t="s">
+        <v>116</v>
+      </c>
+      <c r="D216" t="s">
         <v>627</v>
-      </c>
-      <c r="B216" t="s">
-        <v>492</v>
-      </c>
-      <c r="C216" t="s">
-        <v>116</v>
-      </c>
-      <c r="D216" t="s">
-        <v>628</v>
       </c>
       <c r="E216">
         <v>23</v>
@@ -77685,10 +77682,10 @@
     </row>
     <row r="217" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
+        <v>628</v>
+      </c>
+      <c r="B217" t="s">
         <v>629</v>
-      </c>
-      <c r="B217" t="s">
-        <v>630</v>
       </c>
       <c r="C217" t="s">
         <v>116</v>
@@ -77730,10 +77727,10 @@
         <v>55.21</v>
       </c>
       <c r="P217" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="Q217" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="R217" t="s">
         <v>121</v>
@@ -78032,10 +78029,10 @@
     </row>
     <row r="218" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B218" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C218" t="s">
         <v>116</v>
@@ -78077,10 +78074,10 @@
         <v>44.88</v>
       </c>
       <c r="P218" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="Q218" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="R218" t="s">
         <v>121</v>
@@ -78379,10 +78376,10 @@
     </row>
     <row r="219" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
+        <v>631</v>
+      </c>
+      <c r="B219" t="s">
         <v>632</v>
-      </c>
-      <c r="B219" t="s">
-        <v>633</v>
       </c>
       <c r="C219" t="s">
         <v>116</v>
@@ -78424,10 +78421,10 @@
         <v>30.08</v>
       </c>
       <c r="P219" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="Q219" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="R219" t="s">
         <v>163</v>
@@ -78726,16 +78723,16 @@
     </row>
     <row r="220" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
+        <v>633</v>
+      </c>
+      <c r="B220" t="s">
         <v>634</v>
       </c>
-      <c r="B220" t="s">
+      <c r="C220" t="s">
+        <v>116</v>
+      </c>
+      <c r="D220" t="s">
         <v>635</v>
-      </c>
-      <c r="C220" t="s">
-        <v>116</v>
-      </c>
-      <c r="D220" t="s">
-        <v>636</v>
       </c>
       <c r="E220">
         <v>37</v>
@@ -79073,16 +79070,16 @@
     </row>
     <row r="221" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
+        <v>636</v>
+      </c>
+      <c r="B221" t="s">
         <v>637</v>
       </c>
-      <c r="B221" t="s">
+      <c r="C221" t="s">
+        <v>116</v>
+      </c>
+      <c r="D221" t="s">
         <v>638</v>
-      </c>
-      <c r="C221" t="s">
-        <v>116</v>
-      </c>
-      <c r="D221" t="s">
-        <v>639</v>
       </c>
       <c r="E221">
         <v>23</v>
@@ -79118,10 +79115,10 @@
         <v>65.45</v>
       </c>
       <c r="P221" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Q221" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="R221" t="s">
         <v>121</v>
@@ -79420,7 +79417,7 @@
     </row>
     <row r="222" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B222" t="s">
         <v>211</v>
@@ -79429,7 +79426,7 @@
         <v>116</v>
       </c>
       <c r="D222" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E222">
         <v>21</v>
@@ -79767,10 +79764,10 @@
     </row>
     <row r="223" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
+        <v>641</v>
+      </c>
+      <c r="B223" t="s">
         <v>642</v>
-      </c>
-      <c r="B223" t="s">
-        <v>643</v>
       </c>
       <c r="C223" t="s">
         <v>116</v>
@@ -80114,16 +80111,16 @@
     </row>
     <row r="224" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
+        <v>643</v>
+      </c>
+      <c r="B224" t="s">
         <v>644</v>
       </c>
-      <c r="B224" t="s">
-        <v>645</v>
-      </c>
       <c r="C224" t="s">
         <v>116</v>
       </c>
       <c r="D224" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E224">
         <v>25</v>
@@ -80461,10 +80458,10 @@
     </row>
     <row r="225" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
+        <v>645</v>
+      </c>
+      <c r="B225" t="s">
         <v>646</v>
-      </c>
-      <c r="B225" t="s">
-        <v>647</v>
       </c>
       <c r="C225" t="s">
         <v>116</v>
@@ -80506,10 +80503,10 @@
         <v>45.97</v>
       </c>
       <c r="P225" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Q225" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="R225" t="s">
         <v>163</v>
@@ -80808,16 +80805,16 @@
     </row>
     <row r="226" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
+        <v>647</v>
+      </c>
+      <c r="B226" t="s">
         <v>648</v>
       </c>
-      <c r="B226" t="s">
+      <c r="C226" t="s">
+        <v>116</v>
+      </c>
+      <c r="D226" t="s">
         <v>649</v>
-      </c>
-      <c r="C226" t="s">
-        <v>116</v>
-      </c>
-      <c r="D226" t="s">
-        <v>650</v>
       </c>
       <c r="E226">
         <v>32</v>
@@ -80853,10 +80850,10 @@
         <v>62.5</v>
       </c>
       <c r="P226" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="Q226" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="R226" t="s">
         <v>121</v>
@@ -81155,10 +81152,10 @@
     </row>
     <row r="227" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B227" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C227" t="s">
         <v>116</v>
@@ -81200,10 +81197,10 @@
         <v>53.85</v>
       </c>
       <c r="P227" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Q227" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="R227" t="s">
         <v>121</v>
@@ -81502,16 +81499,16 @@
     </row>
     <row r="228" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B228" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C228" t="s">
         <v>116</v>
       </c>
       <c r="D228" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E228">
         <v>27</v>
@@ -81547,10 +81544,10 @@
         <v>39.68</v>
       </c>
       <c r="P228" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="Q228" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="R228" t="s">
         <v>163</v>
@@ -81849,10 +81846,10 @@
     </row>
     <row r="229" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B229" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C229" t="s">
         <v>116</v>
@@ -81894,10 +81891,10 @@
         <v>80</v>
       </c>
       <c r="P229" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="Q229" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="R229" t="s">
         <v>121</v>
@@ -82196,16 +82193,16 @@
     </row>
     <row r="230" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
+        <v>654</v>
+      </c>
+      <c r="B230" t="s">
         <v>655</v>
       </c>
-      <c r="B230" t="s">
+      <c r="C230" t="s">
+        <v>116</v>
+      </c>
+      <c r="D230" t="s">
         <v>656</v>
-      </c>
-      <c r="C230" t="s">
-        <v>116</v>
-      </c>
-      <c r="D230" t="s">
-        <v>657</v>
       </c>
       <c r="E230">
         <v>26</v>
@@ -82241,10 +82238,10 @@
         <v>43.24</v>
       </c>
       <c r="P230" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="Q230" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="R230" t="s">
         <v>163</v>
@@ -82543,16 +82540,16 @@
     </row>
     <row r="231" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
+        <v>657</v>
+      </c>
+      <c r="B231" t="s">
         <v>658</v>
       </c>
-      <c r="B231" t="s">
+      <c r="C231" t="s">
+        <v>116</v>
+      </c>
+      <c r="D231" t="s">
         <v>659</v>
-      </c>
-      <c r="C231" t="s">
-        <v>116</v>
-      </c>
-      <c r="D231" t="s">
-        <v>660</v>
       </c>
       <c r="E231">
         <v>28</v>
@@ -82588,10 +82585,10 @@
         <v>37.840000000000003</v>
       </c>
       <c r="P231" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="Q231" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="R231" t="s">
         <v>121</v>
@@ -82890,10 +82887,10 @@
     </row>
     <row r="232" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
+        <v>660</v>
+      </c>
+      <c r="B232" t="s">
         <v>661</v>
-      </c>
-      <c r="B232" t="s">
-        <v>662</v>
       </c>
       <c r="C232" t="s">
         <v>116</v>
@@ -82935,10 +82932,10 @@
         <v>42.55</v>
       </c>
       <c r="P232" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="Q232" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="R232" t="s">
         <v>121</v>
@@ -83237,10 +83234,10 @@
     </row>
     <row r="233" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
+        <v>662</v>
+      </c>
+      <c r="B233" t="s">
         <v>663</v>
-      </c>
-      <c r="B233" t="s">
-        <v>664</v>
       </c>
       <c r="C233" t="s">
         <v>116</v>
@@ -83282,10 +83279,10 @@
         <v>56.56</v>
       </c>
       <c r="P233" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="Q233" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="R233" t="s">
         <v>121</v>
@@ -83584,10 +83581,10 @@
     </row>
     <row r="234" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B234" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C234" t="s">
         <v>116</v>
@@ -83602,7 +83599,7 @@
         <v>450000</v>
       </c>
       <c r="G234" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H234">
         <v>13</v>
@@ -83931,10 +83928,10 @@
     </row>
     <row r="235" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B235" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C235" t="s">
         <v>116</v>
@@ -83976,10 +83973,10 @@
         <v>40</v>
       </c>
       <c r="P235" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="Q235" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="R235" t="s">
         <v>163</v>
@@ -84278,10 +84275,10 @@
     </row>
     <row r="236" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B236" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C236" t="s">
         <v>116</v>
@@ -84326,7 +84323,7 @@
         <v>309</v>
       </c>
       <c r="Q236" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="R236" t="s">
         <v>121</v>
@@ -84625,16 +84622,16 @@
     </row>
     <row r="237" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B237" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C237" t="s">
         <v>116</v>
       </c>
       <c r="D237" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E237">
         <v>35</v>
@@ -84670,10 +84667,10 @@
         <v>45.98</v>
       </c>
       <c r="P237" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Q237" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="R237" t="s">
         <v>121</v>
@@ -84972,16 +84969,16 @@
     </row>
     <row r="238" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
+        <v>669</v>
+      </c>
+      <c r="B238" t="s">
+        <v>574</v>
+      </c>
+      <c r="C238" t="s">
+        <v>116</v>
+      </c>
+      <c r="D238" t="s">
         <v>670</v>
-      </c>
-      <c r="B238" t="s">
-        <v>575</v>
-      </c>
-      <c r="C238" t="s">
-        <v>116</v>
-      </c>
-      <c r="D238" t="s">
-        <v>671</v>
       </c>
       <c r="E238">
         <v>35</v>
@@ -85017,10 +85014,10 @@
         <v>56.58</v>
       </c>
       <c r="P238" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Q238" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="R238" t="s">
         <v>121</v>
@@ -85319,16 +85316,16 @@
     </row>
     <row r="239" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
+        <v>671</v>
+      </c>
+      <c r="B239" t="s">
+        <v>648</v>
+      </c>
+      <c r="C239" t="s">
+        <v>116</v>
+      </c>
+      <c r="D239" t="s">
         <v>672</v>
-      </c>
-      <c r="B239" t="s">
-        <v>649</v>
-      </c>
-      <c r="C239" t="s">
-        <v>116</v>
-      </c>
-      <c r="D239" t="s">
-        <v>673</v>
       </c>
       <c r="E239">
         <v>31</v>
@@ -85364,10 +85361,10 @@
         <v>47.22</v>
       </c>
       <c r="P239" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="Q239" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="R239" t="s">
         <v>121</v>
@@ -85666,10 +85663,10 @@
     </row>
     <row r="240" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B240" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C240" t="s">
         <v>116</v>
@@ -85684,7 +85681,7 @@
         <v>350000</v>
       </c>
       <c r="G240" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H240">
         <v>2</v>
@@ -86013,10 +86010,10 @@
     </row>
     <row r="241" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B241" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C241" t="s">
         <v>116</v>
@@ -86360,10 +86357,10 @@
     </row>
     <row r="242" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
+        <v>675</v>
+      </c>
+      <c r="B242" t="s">
         <v>676</v>
-      </c>
-      <c r="B242" t="s">
-        <v>677</v>
       </c>
       <c r="C242" t="s">
         <v>116</v>
@@ -86408,7 +86405,7 @@
         <v>131</v>
       </c>
       <c r="Q242" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="R242" t="s">
         <v>121</v>
@@ -86707,16 +86704,16 @@
     </row>
     <row r="243" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B243" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C243" t="s">
         <v>116</v>
       </c>
       <c r="D243" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E243">
         <v>23</v>
@@ -86752,10 +86749,10 @@
         <v>56.36</v>
       </c>
       <c r="P243" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="Q243" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="R243" t="s">
         <v>121</v>
@@ -87054,7 +87051,7 @@
     </row>
     <row r="244" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B244" t="s">
         <v>116</v>
@@ -87401,10 +87398,10 @@
     </row>
     <row r="245" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B245" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C245" t="s">
         <v>116</v>
@@ -87748,16 +87745,16 @@
     </row>
     <row r="246" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
+        <v>681</v>
+      </c>
+      <c r="B246" t="s">
+        <v>448</v>
+      </c>
+      <c r="C246" t="s">
+        <v>116</v>
+      </c>
+      <c r="D246" t="s">
         <v>682</v>
-      </c>
-      <c r="B246" t="s">
-        <v>449</v>
-      </c>
-      <c r="C246" t="s">
-        <v>116</v>
-      </c>
-      <c r="D246" t="s">
-        <v>683</v>
       </c>
       <c r="E246">
         <v>37</v>
@@ -88095,7 +88092,7 @@
     </row>
     <row r="247" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B247" t="s">
         <v>346</v>
@@ -88442,16 +88439,16 @@
     </row>
     <row r="248" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B248" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C248" t="s">
         <v>116</v>
       </c>
       <c r="D248" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E248">
         <v>32</v>
@@ -88487,10 +88484,10 @@
         <v>35</v>
       </c>
       <c r="P248" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="Q248" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="R248" t="s">
         <v>121</v>
@@ -88789,10 +88786,10 @@
     </row>
     <row r="249" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
+        <v>685</v>
+      </c>
+      <c r="B249" t="s">
         <v>686</v>
-      </c>
-      <c r="B249" t="s">
-        <v>687</v>
       </c>
       <c r="C249" t="s">
         <v>116</v>
@@ -88834,10 +88831,10 @@
         <v>34.78</v>
       </c>
       <c r="P249" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="Q249" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="R249" t="s">
         <v>121</v>
@@ -89136,16 +89133,16 @@
     </row>
     <row r="250" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
+        <v>687</v>
+      </c>
+      <c r="B250" t="s">
+        <v>648</v>
+      </c>
+      <c r="C250" t="s">
+        <v>116</v>
+      </c>
+      <c r="D250" t="s">
         <v>688</v>
-      </c>
-      <c r="B250" t="s">
-        <v>649</v>
-      </c>
-      <c r="C250" t="s">
-        <v>116</v>
-      </c>
-      <c r="D250" t="s">
-        <v>689</v>
       </c>
       <c r="E250">
         <v>34</v>
@@ -89181,10 +89178,10 @@
         <v>47.27</v>
       </c>
       <c r="P250" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="Q250" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="R250" t="s">
         <v>121</v>
@@ -89483,16 +89480,16 @@
     </row>
     <row r="251" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
+        <v>689</v>
+      </c>
+      <c r="B251" t="s">
         <v>690</v>
       </c>
-      <c r="B251" t="s">
-        <v>691</v>
-      </c>
       <c r="C251" t="s">
         <v>116</v>
       </c>
       <c r="D251" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E251">
         <v>31</v>
@@ -89830,10 +89827,10 @@
     </row>
     <row r="252" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B252" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C252" t="s">
         <v>116</v>
@@ -89875,10 +89872,10 @@
         <v>100</v>
       </c>
       <c r="P252" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="Q252" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="R252" t="s">
         <v>121</v>
@@ -90177,16 +90174,16 @@
     </row>
     <row r="253" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
+        <v>693</v>
+      </c>
+      <c r="B253" t="s">
+        <v>686</v>
+      </c>
+      <c r="C253" t="s">
+        <v>116</v>
+      </c>
+      <c r="D253" t="s">
         <v>694</v>
-      </c>
-      <c r="B253" t="s">
-        <v>687</v>
-      </c>
-      <c r="C253" t="s">
-        <v>116</v>
-      </c>
-      <c r="D253" t="s">
-        <v>695</v>
       </c>
       <c r="E253">
         <v>33</v>
@@ -90195,7 +90192,7 @@
         <v>150000</v>
       </c>
       <c r="G253" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H253">
         <v>3</v>
@@ -90222,10 +90219,10 @@
         <v>48.89</v>
       </c>
       <c r="P253" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="Q253" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="R253" t="s">
         <v>121</v>
@@ -90524,7 +90521,7 @@
     </row>
     <row r="254" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B254" t="s">
         <v>252</v>
@@ -90533,7 +90530,7 @@
         <v>116</v>
       </c>
       <c r="D254" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E254">
         <v>21</v>
@@ -90569,10 +90566,10 @@
         <v>68.75</v>
       </c>
       <c r="P254" t="s">
+        <v>696</v>
+      </c>
+      <c r="Q254" t="s">
         <v>697</v>
-      </c>
-      <c r="Q254" t="s">
-        <v>698</v>
       </c>
       <c r="R254" t="s">
         <v>121</v>
@@ -90871,10 +90868,10 @@
     </row>
     <row r="255" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B255" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C255" t="s">
         <v>116</v>
@@ -90916,10 +90913,10 @@
         <v>33.17</v>
       </c>
       <c r="P255" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Q255" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="R255" t="s">
         <v>121</v>
@@ -91218,7 +91215,7 @@
     </row>
     <row r="256" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B256" t="s">
         <v>116</v>
@@ -91263,13 +91260,13 @@
         <v>25.95</v>
       </c>
       <c r="P256" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="Q256" t="s">
+        <v>700</v>
+      </c>
+      <c r="R256" t="s">
         <v>701</v>
-      </c>
-      <c r="R256" t="s">
-        <v>702</v>
       </c>
       <c r="S256">
         <v>183</v>
@@ -91565,10 +91562,10 @@
     </row>
     <row r="257" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B257" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C257" t="s">
         <v>116</v>
@@ -91912,16 +91909,16 @@
     </row>
     <row r="258" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
+        <v>703</v>
+      </c>
+      <c r="B258" t="s">
+        <v>524</v>
+      </c>
+      <c r="C258" t="s">
+        <v>116</v>
+      </c>
+      <c r="D258" t="s">
         <v>704</v>
-      </c>
-      <c r="B258" t="s">
-        <v>525</v>
-      </c>
-      <c r="C258" t="s">
-        <v>116</v>
-      </c>
-      <c r="D258" t="s">
-        <v>705</v>
       </c>
       <c r="E258">
         <v>31</v>
@@ -92259,7 +92256,7 @@
     </row>
     <row r="259" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B259" t="s">
         <v>189</v>
@@ -92268,7 +92265,7 @@
         <v>116</v>
       </c>
       <c r="D259" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E259">
         <v>21</v>
@@ -92606,16 +92603,16 @@
     </row>
     <row r="260" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
+        <v>707</v>
+      </c>
+      <c r="B260" t="s">
+        <v>629</v>
+      </c>
+      <c r="C260" t="s">
+        <v>116</v>
+      </c>
+      <c r="D260" t="s">
         <v>708</v>
-      </c>
-      <c r="B260" t="s">
-        <v>630</v>
-      </c>
-      <c r="C260" t="s">
-        <v>116</v>
-      </c>
-      <c r="D260" t="s">
-        <v>709</v>
       </c>
       <c r="E260">
         <v>20</v>
@@ -92651,10 +92648,10 @@
         <v>60.71</v>
       </c>
       <c r="P260" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="Q260" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="R260" t="s">
         <v>163</v>
@@ -92953,10 +92950,10 @@
     </row>
     <row r="261" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
+        <v>709</v>
+      </c>
+      <c r="B261" t="s">
         <v>710</v>
-      </c>
-      <c r="B261" t="s">
-        <v>711</v>
       </c>
       <c r="C261" t="s">
         <v>116</v>
@@ -92971,7 +92968,7 @@
         <v>0</v>
       </c>
       <c r="G261" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="H261">
         <v>4</v>
@@ -92998,10 +92995,10 @@
         <v>55</v>
       </c>
       <c r="P261" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="Q261" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="R261" t="s">
         <v>121</v>
@@ -93300,16 +93297,16 @@
     </row>
     <row r="262" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
+        <v>712</v>
+      </c>
+      <c r="B262" t="s">
+        <v>414</v>
+      </c>
+      <c r="C262" t="s">
+        <v>116</v>
+      </c>
+      <c r="D262" t="s">
         <v>713</v>
-      </c>
-      <c r="B262" t="s">
-        <v>415</v>
-      </c>
-      <c r="C262" t="s">
-        <v>116</v>
-      </c>
-      <c r="D262" t="s">
-        <v>714</v>
       </c>
       <c r="E262">
         <v>21</v>
@@ -93647,16 +93644,16 @@
     </row>
     <row r="263" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
+        <v>714</v>
+      </c>
+      <c r="B263" t="s">
+        <v>629</v>
+      </c>
+      <c r="C263" t="s">
+        <v>116</v>
+      </c>
+      <c r="D263" t="s">
         <v>715</v>
-      </c>
-      <c r="B263" t="s">
-        <v>630</v>
-      </c>
-      <c r="C263" t="s">
-        <v>116</v>
-      </c>
-      <c r="D263" t="s">
-        <v>716</v>
       </c>
       <c r="E263">
         <v>21</v>
@@ -93692,10 +93689,10 @@
         <v>57.14</v>
       </c>
       <c r="P263" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="Q263" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="R263" t="s">
         <v>121</v>
@@ -93994,16 +93991,16 @@
     </row>
     <row r="264" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
+        <v>716</v>
+      </c>
+      <c r="B264" t="s">
+        <v>629</v>
+      </c>
+      <c r="C264" t="s">
+        <v>116</v>
+      </c>
+      <c r="D264" t="s">
         <v>717</v>
-      </c>
-      <c r="B264" t="s">
-        <v>630</v>
-      </c>
-      <c r="C264" t="s">
-        <v>116</v>
-      </c>
-      <c r="D264" t="s">
-        <v>718</v>
       </c>
       <c r="E264">
         <v>20</v>
@@ -94039,10 +94036,10 @@
         <v>48.28</v>
       </c>
       <c r="P264" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="Q264" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="R264" t="s">
         <v>121</v>
@@ -94341,16 +94338,16 @@
     </row>
     <row r="265" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
+        <v>718</v>
+      </c>
+      <c r="B265" t="s">
         <v>719</v>
       </c>
-      <c r="B265" t="s">
+      <c r="C265" t="s">
+        <v>116</v>
+      </c>
+      <c r="D265" t="s">
         <v>720</v>
-      </c>
-      <c r="C265" t="s">
-        <v>116</v>
-      </c>
-      <c r="D265" t="s">
-        <v>721</v>
       </c>
       <c r="E265">
         <v>26</v>
@@ -94386,10 +94383,10 @@
         <v>34.619999999999997</v>
       </c>
       <c r="P265" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Q265" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="R265" t="s">
         <v>121</v>
@@ -94688,7 +94685,7 @@
     </row>
     <row r="266" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B266" t="s">
         <v>305</v>
@@ -94697,7 +94694,7 @@
         <v>116</v>
       </c>
       <c r="D266" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E266">
         <v>24</v>
@@ -95035,16 +95032,16 @@
     </row>
     <row r="267" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
+        <v>723</v>
+      </c>
+      <c r="B267" t="s">
+        <v>448</v>
+      </c>
+      <c r="C267" t="s">
+        <v>116</v>
+      </c>
+      <c r="D267" t="s">
         <v>724</v>
-      </c>
-      <c r="B267" t="s">
-        <v>449</v>
-      </c>
-      <c r="C267" t="s">
-        <v>116</v>
-      </c>
-      <c r="D267" t="s">
-        <v>725</v>
       </c>
       <c r="E267">
         <v>22</v>
@@ -95382,16 +95379,16 @@
     </row>
     <row r="268" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
+        <v>725</v>
+      </c>
+      <c r="B268" t="s">
         <v>726</v>
       </c>
-      <c r="B268" t="s">
+      <c r="C268" t="s">
+        <v>116</v>
+      </c>
+      <c r="D268" t="s">
         <v>727</v>
-      </c>
-      <c r="C268" t="s">
-        <v>116</v>
-      </c>
-      <c r="D268" t="s">
-        <v>728</v>
       </c>
       <c r="E268">
         <v>21</v>
@@ -95729,7 +95726,7 @@
     </row>
     <row r="269" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B269" t="s">
         <v>115</v>
@@ -96076,16 +96073,16 @@
     </row>
     <row r="270" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
+        <v>729</v>
+      </c>
+      <c r="B270" t="s">
+        <v>617</v>
+      </c>
+      <c r="C270" t="s">
+        <v>116</v>
+      </c>
+      <c r="D270" t="s">
         <v>730</v>
-      </c>
-      <c r="B270" t="s">
-        <v>618</v>
-      </c>
-      <c r="C270" t="s">
-        <v>116</v>
-      </c>
-      <c r="D270" t="s">
-        <v>731</v>
       </c>
       <c r="E270">
         <v>24</v>
@@ -96121,10 +96118,10 @@
         <v>49.57</v>
       </c>
       <c r="P270" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="Q270" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="R270" t="s">
         <v>121</v>
@@ -96423,7 +96420,7 @@
     </row>
     <row r="271" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B271" t="s">
         <v>346</v>
@@ -96432,7 +96429,7 @@
         <v>116</v>
       </c>
       <c r="D271" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E271">
         <v>20</v>
@@ -96468,10 +96465,10 @@
         <v>32.93</v>
       </c>
       <c r="P271" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="Q271" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="R271" t="s">
         <v>163</v>
@@ -96770,10 +96767,10 @@
     </row>
     <row r="272" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B272" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C272" t="s">
         <v>116</v>
@@ -96788,7 +96785,7 @@
         <v>0</v>
       </c>
       <c r="G272" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="H272">
         <v>6</v>
@@ -96815,10 +96812,10 @@
         <v>43.28</v>
       </c>
       <c r="P272" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="Q272" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="R272" t="s">
         <v>163</v>
@@ -97117,10 +97114,10 @@
     </row>
     <row r="273" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B273" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C273" t="s">
         <v>116</v>
@@ -97162,10 +97159,10 @@
         <v>55.14</v>
       </c>
       <c r="P273" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="Q273" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="R273" t="s">
         <v>163</v>
@@ -97464,10 +97461,10 @@
     </row>
     <row r="274" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
+        <v>736</v>
+      </c>
+      <c r="B274" t="s">
         <v>737</v>
-      </c>
-      <c r="B274" t="s">
-        <v>738</v>
       </c>
       <c r="C274" t="s">
         <v>116</v>
@@ -97811,16 +97808,16 @@
     </row>
     <row r="275" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
+        <v>738</v>
+      </c>
+      <c r="B275" t="s">
+        <v>509</v>
+      </c>
+      <c r="C275" t="s">
+        <v>116</v>
+      </c>
+      <c r="D275" t="s">
         <v>739</v>
-      </c>
-      <c r="B275" t="s">
-        <v>510</v>
-      </c>
-      <c r="C275" t="s">
-        <v>116</v>
-      </c>
-      <c r="D275" t="s">
-        <v>740</v>
       </c>
       <c r="E275">
         <v>17</v>
@@ -98158,16 +98155,16 @@
     </row>
     <row r="276" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
+        <v>740</v>
+      </c>
+      <c r="B276" t="s">
         <v>741</v>
       </c>
-      <c r="B276" t="s">
-        <v>742</v>
-      </c>
       <c r="C276" t="s">
         <v>116</v>
       </c>
       <c r="D276" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E276">
         <v>20</v>
@@ -98505,16 +98502,16 @@
     </row>
     <row r="277" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
+        <v>742</v>
+      </c>
+      <c r="B277" t="s">
         <v>743</v>
       </c>
-      <c r="B277" t="s">
+      <c r="C277" t="s">
+        <v>116</v>
+      </c>
+      <c r="D277" t="s">
         <v>744</v>
-      </c>
-      <c r="C277" t="s">
-        <v>116</v>
-      </c>
-      <c r="D277" t="s">
-        <v>745</v>
       </c>
       <c r="E277">
         <v>22</v>

--- a/data/CONMEBOL QUALI.xlsx
+++ b/data/CONMEBOL QUALI.xlsx
@@ -8,19 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felipe\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0752A96-7ACE-47F5-A814-80FD7306E3B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B196A2-2DED-4C77-A903-C3DBD7C4D27B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5970" yWindow="2730" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Search results (276)" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Search results (276)'!$A$1:$DK$277</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4271" uniqueCount="746">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4271" uniqueCount="742">
   <si>
     <t>Player</t>
   </si>
@@ -973,9 +976,6 @@
     <t>Sheffield United</t>
   </si>
   <si>
-    <t>England</t>
-  </si>
-  <si>
     <t>England, Chile</t>
   </si>
   <si>
@@ -1420,9 +1420,6 @@
     <t>N. Fonseca</t>
   </si>
   <si>
-    <t>Italy</t>
-  </si>
-  <si>
     <t>Italy, Uruguay</t>
   </si>
   <si>
@@ -1511,9 +1508,6 @@
   </si>
   <si>
     <t>RW, LWB, RAMF</t>
-  </si>
-  <si>
-    <t>Germany</t>
   </si>
   <si>
     <t>Germany, Ecuador</t>
@@ -1619,9 +1613,6 @@
   </si>
   <si>
     <t>RCMF, RB</t>
-  </si>
-  <si>
-    <t>Denmark</t>
   </si>
   <si>
     <t>Denmark, Peru</t>
@@ -2110,9 +2101,6 @@
     <t>E. Morales</t>
   </si>
   <si>
-    <t>United States</t>
-  </si>
-  <si>
     <t>United States, Bolivia</t>
   </si>
   <si>
@@ -2258,6 +2246,9 @@
   </si>
   <si>
     <t>LW, LWF, CF</t>
+  </si>
+  <si>
+    <t>Peruu</t>
   </si>
 </sst>
 </file>
@@ -2616,26 +2607,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DK277"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="D77" sqref="D77"/>
+    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.08203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.4140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11.9140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.4140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.4140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.08203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.75" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="6.4140625" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="7" max="8" width="11.9140625" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
+    <col min="10" max="10" width="5.25" customWidth="1"/>
+    <col min="11" max="11" width="6.4140625" customWidth="1"/>
+    <col min="12" max="12" width="4.1640625" customWidth="1"/>
+    <col min="13" max="13" width="6.4140625" customWidth="1"/>
+    <col min="14" max="14" width="13" customWidth="1"/>
+    <col min="15" max="15" width="14.08203125" customWidth="1"/>
     <col min="16" max="16" width="10.75" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="18.5" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="6.4140625" bestFit="1" customWidth="1"/>
@@ -6238,7 +6229,7 @@
       <c r="M11">
         <v>0.24</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="1">
         <v>15.06</v>
       </c>
       <c r="O11">
@@ -28764,7 +28755,7 @@
         <v>116</v>
       </c>
       <c r="D76" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="E76">
         <v>25</v>
@@ -28800,10 +28791,10 @@
         <v>32.65</v>
       </c>
       <c r="P76" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q76" t="s">
         <v>317</v>
-      </c>
-      <c r="Q76" t="s">
-        <v>318</v>
       </c>
       <c r="R76" t="s">
         <v>121</v>
@@ -29102,10 +29093,10 @@
     </row>
     <row r="77" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
+        <v>318</v>
+      </c>
+      <c r="B77" t="s">
         <v>319</v>
-      </c>
-      <c r="B77" t="s">
-        <v>320</v>
       </c>
       <c r="C77" t="s">
         <v>116</v>
@@ -29449,16 +29440,16 @@
     </row>
     <row r="78" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
+        <v>320</v>
+      </c>
+      <c r="B78" t="s">
         <v>321</v>
       </c>
-      <c r="B78" t="s">
+      <c r="C78" t="s">
+        <v>116</v>
+      </c>
+      <c r="D78" t="s">
         <v>322</v>
-      </c>
-      <c r="C78" t="s">
-        <v>116</v>
-      </c>
-      <c r="D78" t="s">
-        <v>323</v>
       </c>
       <c r="E78">
         <v>26</v>
@@ -29796,7 +29787,7 @@
     </row>
     <row r="79" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B79" t="s">
         <v>301</v>
@@ -30143,7 +30134,7 @@
     </row>
     <row r="80" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B80" t="s">
         <v>226</v>
@@ -30490,16 +30481,16 @@
     </row>
     <row r="81" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
+        <v>325</v>
+      </c>
+      <c r="B81" t="s">
         <v>326</v>
       </c>
-      <c r="B81" t="s">
+      <c r="C81" t="s">
+        <v>116</v>
+      </c>
+      <c r="D81" t="s">
         <v>327</v>
-      </c>
-      <c r="C81" t="s">
-        <v>116</v>
-      </c>
-      <c r="D81" t="s">
-        <v>328</v>
       </c>
       <c r="E81">
         <v>30</v>
@@ -30837,7 +30828,7 @@
     </row>
     <row r="82" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B82" t="s">
         <v>235</v>
@@ -31184,7 +31175,7 @@
     </row>
     <row r="83" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B83" t="s">
         <v>289</v>
@@ -31193,7 +31184,7 @@
         <v>116</v>
       </c>
       <c r="D83" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E83">
         <v>31</v>
@@ -31531,16 +31522,16 @@
     </row>
     <row r="84" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
+        <v>331</v>
+      </c>
+      <c r="B84" t="s">
         <v>332</v>
       </c>
-      <c r="B84" t="s">
+      <c r="C84" t="s">
+        <v>116</v>
+      </c>
+      <c r="D84" t="s">
         <v>333</v>
-      </c>
-      <c r="C84" t="s">
-        <v>116</v>
-      </c>
-      <c r="D84" t="s">
-        <v>334</v>
       </c>
       <c r="E84">
         <v>25</v>
@@ -31878,16 +31869,16 @@
     </row>
     <row r="85" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
+        <v>334</v>
+      </c>
+      <c r="B85" t="s">
         <v>335</v>
       </c>
-      <c r="B85" t="s">
+      <c r="C85" t="s">
+        <v>116</v>
+      </c>
+      <c r="D85" t="s">
         <v>336</v>
-      </c>
-      <c r="C85" t="s">
-        <v>116</v>
-      </c>
-      <c r="D85" t="s">
-        <v>337</v>
       </c>
       <c r="E85">
         <v>25</v>
@@ -32225,7 +32216,7 @@
     </row>
     <row r="86" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B86" t="s">
         <v>226</v>
@@ -32572,16 +32563,16 @@
     </row>
     <row r="87" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
+        <v>338</v>
+      </c>
+      <c r="B87" t="s">
         <v>339</v>
       </c>
-      <c r="B87" t="s">
+      <c r="C87" t="s">
+        <v>116</v>
+      </c>
+      <c r="D87" t="s">
         <v>340</v>
-      </c>
-      <c r="C87" t="s">
-        <v>116</v>
-      </c>
-      <c r="D87" t="s">
-        <v>341</v>
       </c>
       <c r="E87">
         <v>22</v>
@@ -32617,10 +32608,10 @@
         <v>55.88</v>
       </c>
       <c r="P87" t="s">
-        <v>317</v>
+        <v>150</v>
       </c>
       <c r="Q87" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="R87" t="s">
         <v>121</v>
@@ -32919,7 +32910,7 @@
     </row>
     <row r="88" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B88" t="s">
         <v>308</v>
@@ -32967,7 +32958,7 @@
         <v>254</v>
       </c>
       <c r="Q88" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="R88" t="s">
         <v>121</v>
@@ -33266,16 +33257,16 @@
     </row>
     <row r="89" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
+        <v>344</v>
+      </c>
+      <c r="B89" t="s">
         <v>345</v>
       </c>
-      <c r="B89" t="s">
+      <c r="C89" t="s">
+        <v>116</v>
+      </c>
+      <c r="D89" t="s">
         <v>346</v>
-      </c>
-      <c r="C89" t="s">
-        <v>116</v>
-      </c>
-      <c r="D89" t="s">
-        <v>347</v>
       </c>
       <c r="E89">
         <v>27</v>
@@ -33613,16 +33604,16 @@
     </row>
     <row r="90" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
+        <v>347</v>
+      </c>
+      <c r="B90" t="s">
         <v>348</v>
       </c>
-      <c r="B90" t="s">
+      <c r="C90" t="s">
+        <v>116</v>
+      </c>
+      <c r="D90" t="s">
         <v>349</v>
-      </c>
-      <c r="C90" t="s">
-        <v>116</v>
-      </c>
-      <c r="D90" t="s">
-        <v>350</v>
       </c>
       <c r="E90">
         <v>25</v>
@@ -33960,16 +33951,16 @@
     </row>
     <row r="91" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
+        <v>350</v>
+      </c>
+      <c r="B91" t="s">
+        <v>348</v>
+      </c>
+      <c r="C91" t="s">
+        <v>116</v>
+      </c>
+      <c r="D91" t="s">
         <v>351</v>
-      </c>
-      <c r="B91" t="s">
-        <v>349</v>
-      </c>
-      <c r="C91" t="s">
-        <v>116</v>
-      </c>
-      <c r="D91" t="s">
-        <v>352</v>
       </c>
       <c r="E91">
         <v>31</v>
@@ -34307,7 +34298,7 @@
     </row>
     <row r="92" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B92" t="s">
         <v>235</v>
@@ -34654,16 +34645,16 @@
     </row>
     <row r="93" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
+        <v>353</v>
+      </c>
+      <c r="B93" t="s">
+        <v>348</v>
+      </c>
+      <c r="C93" t="s">
+        <v>116</v>
+      </c>
+      <c r="D93" t="s">
         <v>354</v>
-      </c>
-      <c r="B93" t="s">
-        <v>349</v>
-      </c>
-      <c r="C93" t="s">
-        <v>116</v>
-      </c>
-      <c r="D93" t="s">
-        <v>355</v>
       </c>
       <c r="E93">
         <v>28</v>
@@ -35001,10 +34992,10 @@
     </row>
     <row r="94" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
+        <v>355</v>
+      </c>
+      <c r="B94" t="s">
         <v>356</v>
-      </c>
-      <c r="B94" t="s">
-        <v>357</v>
       </c>
       <c r="C94" t="s">
         <v>116</v>
@@ -35348,16 +35339,16 @@
     </row>
     <row r="95" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
+        <v>357</v>
+      </c>
+      <c r="B95" t="s">
         <v>358</v>
       </c>
-      <c r="B95" t="s">
+      <c r="C95" t="s">
+        <v>116</v>
+      </c>
+      <c r="D95" t="s">
         <v>359</v>
-      </c>
-      <c r="C95" t="s">
-        <v>116</v>
-      </c>
-      <c r="D95" t="s">
-        <v>360</v>
       </c>
       <c r="E95">
         <v>21</v>
@@ -35695,7 +35686,7 @@
     </row>
     <row r="96" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B96" t="s">
         <v>261</v>
@@ -35704,7 +35695,7 @@
         <v>116</v>
       </c>
       <c r="D96" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E96">
         <v>26</v>
@@ -36042,7 +36033,7 @@
     </row>
     <row r="97" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B97" t="s">
         <v>263</v>
@@ -36051,7 +36042,7 @@
         <v>116</v>
       </c>
       <c r="D97" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E97">
         <v>24</v>
@@ -36389,7 +36380,7 @@
     </row>
     <row r="98" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B98" t="s">
         <v>305</v>
@@ -36398,7 +36389,7 @@
         <v>116</v>
       </c>
       <c r="D98" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E98">
         <v>30</v>
@@ -36736,16 +36727,16 @@
     </row>
     <row r="99" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
+        <v>366</v>
+      </c>
+      <c r="B99" t="s">
         <v>367</v>
       </c>
-      <c r="B99" t="s">
-        <v>368</v>
-      </c>
       <c r="C99" t="s">
         <v>116</v>
       </c>
       <c r="D99" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E99">
         <v>24</v>
@@ -37083,16 +37074,16 @@
     </row>
     <row r="100" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
+        <v>368</v>
+      </c>
+      <c r="B100" t="s">
         <v>369</v>
       </c>
-      <c r="B100" t="s">
+      <c r="C100" t="s">
+        <v>116</v>
+      </c>
+      <c r="D100" t="s">
         <v>370</v>
-      </c>
-      <c r="C100" t="s">
-        <v>116</v>
-      </c>
-      <c r="D100" t="s">
-        <v>371</v>
       </c>
       <c r="E100">
         <v>27</v>
@@ -37430,7 +37421,7 @@
     </row>
     <row r="101" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B101" t="s">
         <v>263</v>
@@ -37439,7 +37430,7 @@
         <v>116</v>
       </c>
       <c r="D101" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E101">
         <v>31</v>
@@ -37777,16 +37768,16 @@
     </row>
     <row r="102" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
+        <v>373</v>
+      </c>
+      <c r="B102" t="s">
+        <v>348</v>
+      </c>
+      <c r="C102" t="s">
+        <v>116</v>
+      </c>
+      <c r="D102" t="s">
         <v>374</v>
-      </c>
-      <c r="B102" t="s">
-        <v>349</v>
-      </c>
-      <c r="C102" t="s">
-        <v>116</v>
-      </c>
-      <c r="D102" t="s">
-        <v>375</v>
       </c>
       <c r="E102">
         <v>27</v>
@@ -38124,16 +38115,16 @@
     </row>
     <row r="103" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
+        <v>375</v>
+      </c>
+      <c r="B103" t="s">
         <v>376</v>
       </c>
-      <c r="B103" t="s">
+      <c r="C103" t="s">
+        <v>116</v>
+      </c>
+      <c r="D103" t="s">
         <v>377</v>
-      </c>
-      <c r="C103" t="s">
-        <v>116</v>
-      </c>
-      <c r="D103" t="s">
-        <v>378</v>
       </c>
       <c r="E103">
         <v>22</v>
@@ -38471,16 +38462,16 @@
     </row>
     <row r="104" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
+        <v>378</v>
+      </c>
+      <c r="B104" t="s">
         <v>379</v>
       </c>
-      <c r="B104" t="s">
+      <c r="C104" t="s">
+        <v>116</v>
+      </c>
+      <c r="D104" t="s">
         <v>380</v>
-      </c>
-      <c r="C104" t="s">
-        <v>116</v>
-      </c>
-      <c r="D104" t="s">
-        <v>381</v>
       </c>
       <c r="E104">
         <v>28</v>
@@ -38519,7 +38510,7 @@
         <v>232</v>
       </c>
       <c r="Q104" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="R104" t="s">
         <v>121</v>
@@ -38818,16 +38809,16 @@
     </row>
     <row r="105" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
+        <v>382</v>
+      </c>
+      <c r="B105" t="s">
         <v>383</v>
       </c>
-      <c r="B105" t="s">
+      <c r="C105" t="s">
+        <v>116</v>
+      </c>
+      <c r="D105" t="s">
         <v>384</v>
-      </c>
-      <c r="C105" t="s">
-        <v>116</v>
-      </c>
-      <c r="D105" t="s">
-        <v>385</v>
       </c>
       <c r="E105">
         <v>29</v>
@@ -38863,10 +38854,10 @@
         <v>61.29</v>
       </c>
       <c r="P105" t="s">
+        <v>385</v>
+      </c>
+      <c r="Q105" t="s">
         <v>386</v>
-      </c>
-      <c r="Q105" t="s">
-        <v>387</v>
       </c>
       <c r="R105" t="s">
         <v>121</v>
@@ -39165,16 +39156,16 @@
     </row>
     <row r="106" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
+        <v>387</v>
+      </c>
+      <c r="B106" t="s">
         <v>388</v>
       </c>
-      <c r="B106" t="s">
+      <c r="C106" t="s">
+        <v>116</v>
+      </c>
+      <c r="D106" t="s">
         <v>389</v>
-      </c>
-      <c r="C106" t="s">
-        <v>116</v>
-      </c>
-      <c r="D106" t="s">
-        <v>390</v>
       </c>
       <c r="E106">
         <v>33</v>
@@ -39213,7 +39204,7 @@
         <v>145</v>
       </c>
       <c r="Q106" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="R106" t="s">
         <v>163</v>
@@ -39512,7 +39503,7 @@
     </row>
     <row r="107" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B107" t="s">
         <v>311</v>
@@ -39521,7 +39512,7 @@
         <v>116</v>
       </c>
       <c r="D107" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E107">
         <v>22</v>
@@ -39859,10 +39850,10 @@
     </row>
     <row r="108" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
+        <v>393</v>
+      </c>
+      <c r="B108" t="s">
         <v>394</v>
-      </c>
-      <c r="B108" t="s">
-        <v>395</v>
       </c>
       <c r="C108" t="s">
         <v>116</v>
@@ -40206,16 +40197,16 @@
     </row>
     <row r="109" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
+        <v>395</v>
+      </c>
+      <c r="B109" t="s">
         <v>396</v>
       </c>
-      <c r="B109" t="s">
+      <c r="C109" t="s">
+        <v>116</v>
+      </c>
+      <c r="D109" t="s">
         <v>397</v>
-      </c>
-      <c r="C109" t="s">
-        <v>116</v>
-      </c>
-      <c r="D109" t="s">
-        <v>398</v>
       </c>
       <c r="E109">
         <v>30</v>
@@ -40251,10 +40242,10 @@
         <v>56</v>
       </c>
       <c r="P109" t="s">
-        <v>131</v>
+        <v>254</v>
       </c>
       <c r="Q109" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="R109" t="s">
         <v>163</v>
@@ -40553,10 +40544,10 @@
     </row>
     <row r="110" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
+        <v>399</v>
+      </c>
+      <c r="B110" t="s">
         <v>400</v>
-      </c>
-      <c r="B110" t="s">
-        <v>401</v>
       </c>
       <c r="C110" t="s">
         <v>116</v>
@@ -40900,7 +40891,7 @@
     </row>
     <row r="111" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B111" t="s">
         <v>256</v>
@@ -41247,16 +41238,16 @@
     </row>
     <row r="112" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
+        <v>402</v>
+      </c>
+      <c r="B112" t="s">
         <v>403</v>
       </c>
-      <c r="B112" t="s">
+      <c r="C112" t="s">
+        <v>116</v>
+      </c>
+      <c r="D112" t="s">
         <v>404</v>
-      </c>
-      <c r="C112" t="s">
-        <v>116</v>
-      </c>
-      <c r="D112" t="s">
-        <v>405</v>
       </c>
       <c r="E112">
         <v>29</v>
@@ -41594,16 +41585,16 @@
     </row>
     <row r="113" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
+        <v>405</v>
+      </c>
+      <c r="B113" t="s">
         <v>406</v>
       </c>
-      <c r="B113" t="s">
+      <c r="C113" t="s">
+        <v>116</v>
+      </c>
+      <c r="D113" t="s">
         <v>407</v>
-      </c>
-      <c r="C113" t="s">
-        <v>116</v>
-      </c>
-      <c r="D113" t="s">
-        <v>408</v>
       </c>
       <c r="E113">
         <v>25</v>
@@ -41941,10 +41932,10 @@
     </row>
     <row r="114" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
+        <v>408</v>
+      </c>
+      <c r="B114" t="s">
         <v>409</v>
-      </c>
-      <c r="B114" t="s">
-        <v>410</v>
       </c>
       <c r="C114" t="s">
         <v>116</v>
@@ -42288,16 +42279,16 @@
     </row>
     <row r="115" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
+        <v>410</v>
+      </c>
+      <c r="B115" t="s">
         <v>411</v>
       </c>
-      <c r="B115" t="s">
+      <c r="C115" t="s">
+        <v>116</v>
+      </c>
+      <c r="D115" t="s">
         <v>412</v>
-      </c>
-      <c r="C115" t="s">
-        <v>116</v>
-      </c>
-      <c r="D115" t="s">
-        <v>413</v>
       </c>
       <c r="E115">
         <v>28</v>
@@ -42638,13 +42629,13 @@
         <v>221</v>
       </c>
       <c r="B116" t="s">
+        <v>413</v>
+      </c>
+      <c r="C116" t="s">
+        <v>116</v>
+      </c>
+      <c r="D116" t="s">
         <v>414</v>
-      </c>
-      <c r="C116" t="s">
-        <v>116</v>
-      </c>
-      <c r="D116" t="s">
-        <v>415</v>
       </c>
       <c r="E116">
         <v>25</v>
@@ -42982,16 +42973,16 @@
     </row>
     <row r="117" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
+        <v>415</v>
+      </c>
+      <c r="B117" t="s">
         <v>416</v>
       </c>
-      <c r="B117" t="s">
+      <c r="C117" t="s">
+        <v>116</v>
+      </c>
+      <c r="D117" t="s">
         <v>417</v>
-      </c>
-      <c r="C117" t="s">
-        <v>116</v>
-      </c>
-      <c r="D117" t="s">
-        <v>418</v>
       </c>
       <c r="E117">
         <v>22</v>
@@ -43329,7 +43320,7 @@
     </row>
     <row r="118" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B118" t="s">
         <v>305</v>
@@ -43676,16 +43667,16 @@
     </row>
     <row r="119" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
+        <v>419</v>
+      </c>
+      <c r="B119" t="s">
         <v>420</v>
       </c>
-      <c r="B119" t="s">
+      <c r="C119" t="s">
+        <v>116</v>
+      </c>
+      <c r="D119" t="s">
         <v>421</v>
-      </c>
-      <c r="C119" t="s">
-        <v>116</v>
-      </c>
-      <c r="D119" t="s">
-        <v>422</v>
       </c>
       <c r="E119">
         <v>33</v>
@@ -44023,7 +44014,7 @@
     </row>
     <row r="120" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B120" t="s">
         <v>305</v>
@@ -44032,7 +44023,7 @@
         <v>116</v>
       </c>
       <c r="D120" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E120">
         <v>29</v>
@@ -44370,10 +44361,10 @@
     </row>
     <row r="121" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
+        <v>424</v>
+      </c>
+      <c r="B121" t="s">
         <v>425</v>
-      </c>
-      <c r="B121" t="s">
-        <v>426</v>
       </c>
       <c r="C121" t="s">
         <v>116</v>
@@ -44717,16 +44708,16 @@
     </row>
     <row r="122" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
+        <v>426</v>
+      </c>
+      <c r="B122" t="s">
         <v>427</v>
       </c>
-      <c r="B122" t="s">
+      <c r="C122" t="s">
+        <v>116</v>
+      </c>
+      <c r="D122" t="s">
         <v>428</v>
-      </c>
-      <c r="C122" t="s">
-        <v>116</v>
-      </c>
-      <c r="D122" t="s">
-        <v>429</v>
       </c>
       <c r="E122">
         <v>25</v>
@@ -45064,16 +45055,16 @@
     </row>
     <row r="123" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
+        <v>429</v>
+      </c>
+      <c r="B123" t="s">
+        <v>348</v>
+      </c>
+      <c r="C123" t="s">
+        <v>116</v>
+      </c>
+      <c r="D123" t="s">
         <v>430</v>
-      </c>
-      <c r="B123" t="s">
-        <v>349</v>
-      </c>
-      <c r="C123" t="s">
-        <v>116</v>
-      </c>
-      <c r="D123" t="s">
-        <v>431</v>
       </c>
       <c r="E123">
         <v>24</v>
@@ -45411,16 +45402,16 @@
     </row>
     <row r="124" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
+        <v>431</v>
+      </c>
+      <c r="B124" t="s">
+        <v>321</v>
+      </c>
+      <c r="C124" t="s">
+        <v>116</v>
+      </c>
+      <c r="D124" t="s">
         <v>432</v>
-      </c>
-      <c r="B124" t="s">
-        <v>322</v>
-      </c>
-      <c r="C124" t="s">
-        <v>116</v>
-      </c>
-      <c r="D124" t="s">
-        <v>433</v>
       </c>
       <c r="E124">
         <v>23</v>
@@ -45758,10 +45749,10 @@
     </row>
     <row r="125" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B125" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C125" t="s">
         <v>116</v>
@@ -46105,7 +46096,7 @@
     </row>
     <row r="126" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B126" t="s">
         <v>301</v>
@@ -46114,7 +46105,7 @@
         <v>116</v>
       </c>
       <c r="D126" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E126">
         <v>26</v>
@@ -46452,16 +46443,16 @@
     </row>
     <row r="127" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
+        <v>436</v>
+      </c>
+      <c r="B127" t="s">
         <v>437</v>
       </c>
-      <c r="B127" t="s">
-        <v>438</v>
-      </c>
       <c r="C127" t="s">
         <v>116</v>
       </c>
       <c r="D127" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E127">
         <v>26</v>
@@ -46500,7 +46491,7 @@
         <v>232</v>
       </c>
       <c r="Q127" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="R127" t="s">
         <v>121</v>
@@ -46799,10 +46790,10 @@
     </row>
     <row r="128" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B128" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C128" t="s">
         <v>116</v>
@@ -47146,7 +47137,7 @@
     </row>
     <row r="129" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B129" t="s">
         <v>211</v>
@@ -47493,16 +47484,16 @@
     </row>
     <row r="130" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
+        <v>440</v>
+      </c>
+      <c r="B130" t="s">
         <v>441</v>
       </c>
-      <c r="B130" t="s">
+      <c r="C130" t="s">
+        <v>116</v>
+      </c>
+      <c r="D130" t="s">
         <v>442</v>
-      </c>
-      <c r="C130" t="s">
-        <v>116</v>
-      </c>
-      <c r="D130" t="s">
-        <v>443</v>
       </c>
       <c r="E130">
         <v>36</v>
@@ -47840,7 +47831,7 @@
     </row>
     <row r="131" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B131" t="s">
         <v>281</v>
@@ -48187,16 +48178,16 @@
     </row>
     <row r="132" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
+        <v>444</v>
+      </c>
+      <c r="B132" t="s">
+        <v>400</v>
+      </c>
+      <c r="C132" t="s">
+        <v>116</v>
+      </c>
+      <c r="D132" t="s">
         <v>445</v>
-      </c>
-      <c r="B132" t="s">
-        <v>401</v>
-      </c>
-      <c r="C132" t="s">
-        <v>116</v>
-      </c>
-      <c r="D132" t="s">
-        <v>446</v>
       </c>
       <c r="E132">
         <v>30</v>
@@ -48534,10 +48525,10 @@
     </row>
     <row r="133" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
+        <v>446</v>
+      </c>
+      <c r="B133" t="s">
         <v>447</v>
-      </c>
-      <c r="B133" t="s">
-        <v>448</v>
       </c>
       <c r="C133" t="s">
         <v>116</v>
@@ -48881,16 +48872,16 @@
     </row>
     <row r="134" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
+        <v>448</v>
+      </c>
+      <c r="B134" t="s">
         <v>449</v>
       </c>
-      <c r="B134" t="s">
+      <c r="C134" t="s">
+        <v>116</v>
+      </c>
+      <c r="D134" t="s">
         <v>450</v>
-      </c>
-      <c r="C134" t="s">
-        <v>116</v>
-      </c>
-      <c r="D134" t="s">
-        <v>451</v>
       </c>
       <c r="E134">
         <v>29</v>
@@ -48926,10 +48917,10 @@
         <v>48.15</v>
       </c>
       <c r="P134" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="Q134" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="R134" t="s">
         <v>121</v>
@@ -49228,7 +49219,7 @@
     </row>
     <row r="135" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B135" t="s">
         <v>252</v>
@@ -49273,10 +49264,10 @@
         <v>61.11</v>
       </c>
       <c r="P135" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="Q135" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="R135" t="s">
         <v>163</v>
@@ -49575,16 +49566,16 @@
     </row>
     <row r="136" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
+        <v>453</v>
+      </c>
+      <c r="B136" t="s">
         <v>454</v>
       </c>
-      <c r="B136" t="s">
+      <c r="C136" t="s">
+        <v>116</v>
+      </c>
+      <c r="D136" t="s">
         <v>455</v>
-      </c>
-      <c r="C136" t="s">
-        <v>116</v>
-      </c>
-      <c r="D136" t="s">
-        <v>456</v>
       </c>
       <c r="E136">
         <v>25</v>
@@ -49620,10 +49611,10 @@
         <v>50</v>
       </c>
       <c r="P136" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="Q136" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="R136" t="s">
         <v>163</v>
@@ -49922,16 +49913,16 @@
     </row>
     <row r="137" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
+        <v>456</v>
+      </c>
+      <c r="B137" t="s">
+        <v>388</v>
+      </c>
+      <c r="C137" t="s">
+        <v>116</v>
+      </c>
+      <c r="D137" t="s">
         <v>457</v>
-      </c>
-      <c r="B137" t="s">
-        <v>389</v>
-      </c>
-      <c r="C137" t="s">
-        <v>116</v>
-      </c>
-      <c r="D137" t="s">
-        <v>458</v>
       </c>
       <c r="E137">
         <v>29</v>
@@ -50269,10 +50260,10 @@
     </row>
     <row r="138" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B138" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C138" t="s">
         <v>116</v>
@@ -50616,10 +50607,10 @@
     </row>
     <row r="139" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
+        <v>459</v>
+      </c>
+      <c r="B139" t="s">
         <v>460</v>
-      </c>
-      <c r="B139" t="s">
-        <v>461</v>
       </c>
       <c r="C139" t="s">
         <v>116</v>
@@ -50963,16 +50954,16 @@
     </row>
     <row r="140" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
+        <v>461</v>
+      </c>
+      <c r="B140" t="s">
+        <v>411</v>
+      </c>
+      <c r="C140" t="s">
+        <v>116</v>
+      </c>
+      <c r="D140" t="s">
         <v>462</v>
-      </c>
-      <c r="B140" t="s">
-        <v>412</v>
-      </c>
-      <c r="C140" t="s">
-        <v>116</v>
-      </c>
-      <c r="D140" t="s">
-        <v>463</v>
       </c>
       <c r="E140">
         <v>23</v>
@@ -51310,10 +51301,10 @@
     </row>
     <row r="141" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B141" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C141" t="s">
         <v>116</v>
@@ -51657,10 +51648,10 @@
     </row>
     <row r="142" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B142" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C142" t="s">
         <v>116</v>
@@ -51702,10 +51693,10 @@
         <v>56</v>
       </c>
       <c r="P142" t="s">
-        <v>466</v>
+        <v>126</v>
       </c>
       <c r="Q142" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="R142" t="s">
         <v>121</v>
@@ -52004,7 +51995,7 @@
     </row>
     <row r="143" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B143" t="s">
         <v>305</v>
@@ -52351,16 +52342,16 @@
     </row>
     <row r="144" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B144" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C144" t="s">
         <v>116</v>
       </c>
       <c r="D144" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E144">
         <v>29</v>
@@ -52396,10 +52387,10 @@
         <v>42.42</v>
       </c>
       <c r="P144" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="Q144" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="R144" t="s">
         <v>121</v>
@@ -52698,16 +52689,16 @@
     </row>
     <row r="145" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
+        <v>470</v>
+      </c>
+      <c r="B145" t="s">
+        <v>471</v>
+      </c>
+      <c r="C145" t="s">
+        <v>116</v>
+      </c>
+      <c r="D145" t="s">
         <v>472</v>
-      </c>
-      <c r="B145" t="s">
-        <v>473</v>
-      </c>
-      <c r="C145" t="s">
-        <v>116</v>
-      </c>
-      <c r="D145" t="s">
-        <v>474</v>
       </c>
       <c r="E145">
         <v>36</v>
@@ -53045,10 +53036,10 @@
     </row>
     <row r="146" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B146" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C146" t="s">
         <v>116</v>
@@ -53392,10 +53383,10 @@
     </row>
     <row r="147" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B147" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C147" t="s">
         <v>116</v>
@@ -53739,16 +53730,16 @@
     </row>
     <row r="148" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B148" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C148" t="s">
         <v>116</v>
       </c>
       <c r="D148" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E148">
         <v>30</v>
@@ -53784,10 +53775,10 @@
         <v>50.5</v>
       </c>
       <c r="P148" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="Q148" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="R148" t="s">
         <v>121</v>
@@ -54086,16 +54077,16 @@
     </row>
     <row r="149" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
+        <v>477</v>
+      </c>
+      <c r="B149" t="s">
+        <v>478</v>
+      </c>
+      <c r="C149" t="s">
+        <v>116</v>
+      </c>
+      <c r="D149" t="s">
         <v>479</v>
-      </c>
-      <c r="B149" t="s">
-        <v>480</v>
-      </c>
-      <c r="C149" t="s">
-        <v>116</v>
-      </c>
-      <c r="D149" t="s">
-        <v>481</v>
       </c>
       <c r="E149">
         <v>29</v>
@@ -54433,16 +54424,16 @@
     </row>
     <row r="150" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B150" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C150" t="s">
         <v>116</v>
       </c>
       <c r="D150" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E150">
         <v>23</v>
@@ -54780,16 +54771,16 @@
     </row>
     <row r="151" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
+        <v>482</v>
+      </c>
+      <c r="B151" t="s">
+        <v>483</v>
+      </c>
+      <c r="C151" t="s">
+        <v>116</v>
+      </c>
+      <c r="D151" t="s">
         <v>484</v>
-      </c>
-      <c r="B151" t="s">
-        <v>485</v>
-      </c>
-      <c r="C151" t="s">
-        <v>116</v>
-      </c>
-      <c r="D151" t="s">
-        <v>486</v>
       </c>
       <c r="E151">
         <v>32</v>
@@ -55127,10 +55118,10 @@
     </row>
     <row r="152" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B152" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C152" t="s">
         <v>116</v>
@@ -55474,10 +55465,10 @@
     </row>
     <row r="153" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B153" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C153" t="s">
         <v>116</v>
@@ -55821,16 +55812,16 @@
     </row>
     <row r="154" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
+        <v>488</v>
+      </c>
+      <c r="B154" t="s">
+        <v>489</v>
+      </c>
+      <c r="C154" t="s">
+        <v>116</v>
+      </c>
+      <c r="D154" t="s">
         <v>490</v>
-      </c>
-      <c r="B154" t="s">
-        <v>491</v>
-      </c>
-      <c r="C154" t="s">
-        <v>116</v>
-      </c>
-      <c r="D154" t="s">
-        <v>492</v>
       </c>
       <c r="E154">
         <v>26</v>
@@ -56168,10 +56159,10 @@
     </row>
     <row r="155" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B155" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C155" t="s">
         <v>116</v>
@@ -56515,16 +56506,16 @@
     </row>
     <row r="156" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
+        <v>492</v>
+      </c>
+      <c r="B156" t="s">
+        <v>493</v>
+      </c>
+      <c r="C156" t="s">
+        <v>116</v>
+      </c>
+      <c r="D156" t="s">
         <v>494</v>
-      </c>
-      <c r="B156" t="s">
-        <v>495</v>
-      </c>
-      <c r="C156" t="s">
-        <v>116</v>
-      </c>
-      <c r="D156" t="s">
-        <v>496</v>
       </c>
       <c r="E156">
         <v>24</v>
@@ -56560,10 +56551,10 @@
         <v>32.08</v>
       </c>
       <c r="P156" t="s">
-        <v>497</v>
+        <v>150</v>
       </c>
       <c r="Q156" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="R156" t="s">
         <v>163</v>
@@ -56862,16 +56853,16 @@
     </row>
     <row r="157" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B157" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C157" t="s">
         <v>116</v>
       </c>
       <c r="D157" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E157">
         <v>30</v>
@@ -57209,10 +57200,10 @@
     </row>
     <row r="158" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B158" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="C158" t="s">
         <v>116</v>
@@ -57556,10 +57547,10 @@
     </row>
     <row r="159" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B159" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C159" t="s">
         <v>116</v>
@@ -57604,7 +57595,7 @@
         <v>145</v>
       </c>
       <c r="Q159" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="R159" t="s">
         <v>163</v>
@@ -57903,16 +57894,16 @@
     </row>
     <row r="160" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B160" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C160" t="s">
         <v>116</v>
       </c>
       <c r="D160" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="E160">
         <v>22</v>
@@ -58250,10 +58241,10 @@
     </row>
     <row r="161" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B161" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C161" t="s">
         <v>116</v>
@@ -58597,16 +58588,16 @@
     </row>
     <row r="162" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="B162" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C162" t="s">
         <v>116</v>
       </c>
       <c r="D162" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="E162">
         <v>28</v>
@@ -58944,16 +58935,16 @@
     </row>
     <row r="163" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="B163" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="C163" t="s">
         <v>116</v>
       </c>
       <c r="D163" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="E163">
         <v>31</v>
@@ -59291,16 +59282,16 @@
     </row>
     <row r="164" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B164" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C164" t="s">
         <v>116</v>
       </c>
       <c r="D164" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="E164">
         <v>32</v>
@@ -59336,10 +59327,10 @@
         <v>59.57</v>
       </c>
       <c r="P164" t="s">
-        <v>131</v>
+        <v>309</v>
       </c>
       <c r="Q164" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="R164" t="s">
         <v>121</v>
@@ -59638,16 +59629,16 @@
     </row>
     <row r="165" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="B165" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="C165" t="s">
         <v>116</v>
       </c>
       <c r="D165" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="E165">
         <v>28</v>
@@ -59985,16 +59976,16 @@
     </row>
     <row r="166" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B166" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="C166" t="s">
         <v>116</v>
       </c>
       <c r="D166" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="E166">
         <v>27</v>
@@ -60332,16 +60323,16 @@
     </row>
     <row r="167" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B167" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="C167" t="s">
         <v>116</v>
       </c>
       <c r="D167" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="E167">
         <v>22</v>
@@ -60679,16 +60670,16 @@
     </row>
     <row r="168" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="B168" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="C168" t="s">
         <v>116</v>
       </c>
       <c r="D168" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="E168">
         <v>29</v>
@@ -61026,10 +61017,10 @@
     </row>
     <row r="169" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B169" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C169" t="s">
         <v>116</v>
@@ -61373,16 +61364,16 @@
     </row>
     <row r="170" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="B170" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C170" t="s">
         <v>116</v>
       </c>
       <c r="D170" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="E170">
         <v>24</v>
@@ -61418,10 +61409,10 @@
         <v>35.42</v>
       </c>
       <c r="P170" t="s">
-        <v>533</v>
+        <v>385</v>
       </c>
       <c r="Q170" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="R170" t="s">
         <v>121</v>
@@ -61720,16 +61711,16 @@
     </row>
     <row r="171" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="B171" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C171" t="s">
         <v>116</v>
       </c>
       <c r="D171" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="E171">
         <v>30</v>
@@ -61738,7 +61729,7 @@
         <v>1800000</v>
       </c>
       <c r="G171" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="H171">
         <v>2</v>
@@ -62067,16 +62058,16 @@
     </row>
     <row r="172" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="B172" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C172" t="s">
         <v>116</v>
       </c>
       <c r="D172" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="E172">
         <v>22</v>
@@ -62414,16 +62405,16 @@
     </row>
     <row r="173" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B173" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="C173" t="s">
         <v>116</v>
       </c>
       <c r="D173" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E173">
         <v>24</v>
@@ -62761,10 +62752,10 @@
     </row>
     <row r="174" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="B174" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="C174" t="s">
         <v>116</v>
@@ -62806,10 +62797,10 @@
         <v>55.56</v>
       </c>
       <c r="P174" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="Q174" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="R174" t="s">
         <v>121</v>
@@ -63108,7 +63099,7 @@
     </row>
     <row r="175" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="B175" t="s">
         <v>263</v>
@@ -63117,7 +63108,7 @@
         <v>116</v>
       </c>
       <c r="D175" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="E175">
         <v>31</v>
@@ -63455,10 +63446,10 @@
     </row>
     <row r="176" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="B176" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="C176" t="s">
         <v>116</v>
@@ -63802,16 +63793,16 @@
     </row>
     <row r="177" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B177" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="C177" t="s">
         <v>116</v>
       </c>
       <c r="D177" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="E177">
         <v>21</v>
@@ -63847,10 +63838,10 @@
         <v>35.9</v>
       </c>
       <c r="P177" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="Q177" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="R177" t="s">
         <v>121</v>
@@ -64149,16 +64140,16 @@
     </row>
     <row r="178" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="B178" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="C178" t="s">
         <v>116</v>
       </c>
       <c r="D178" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="E178">
         <v>24</v>
@@ -64194,10 +64185,10 @@
         <v>42.11</v>
       </c>
       <c r="P178" t="s">
-        <v>131</v>
+        <v>254</v>
       </c>
       <c r="Q178" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="R178" t="s">
         <v>163</v>
@@ -64496,16 +64487,16 @@
     </row>
     <row r="179" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B179" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="C179" t="s">
         <v>116</v>
       </c>
       <c r="D179" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="E179">
         <v>33</v>
@@ -64843,16 +64834,16 @@
     </row>
     <row r="180" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="B180" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C180" t="s">
         <v>116</v>
       </c>
       <c r="D180" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="E180">
         <v>33</v>
@@ -64888,10 +64879,10 @@
         <v>32.880000000000003</v>
       </c>
       <c r="P180" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="Q180" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="R180" t="s">
         <v>121</v>
@@ -65190,10 +65181,10 @@
     </row>
     <row r="181" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="B181" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="C181" t="s">
         <v>116</v>
@@ -65235,10 +65226,10 @@
         <v>31.4</v>
       </c>
       <c r="P181" t="s">
-        <v>466</v>
+        <v>741</v>
       </c>
       <c r="Q181" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="R181" t="s">
         <v>163</v>
@@ -65537,10 +65528,10 @@
     </row>
     <row r="182" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="B182" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="C182" t="s">
         <v>116</v>
@@ -65585,7 +65576,7 @@
         <v>309</v>
       </c>
       <c r="Q182" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="R182" t="s">
         <v>121</v>
@@ -65884,10 +65875,10 @@
     </row>
     <row r="183" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B183" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="C183" t="s">
         <v>116</v>
@@ -66231,16 +66222,16 @@
     </row>
     <row r="184" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="B184" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="C184" t="s">
         <v>116</v>
       </c>
       <c r="D184" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="E184">
         <v>29</v>
@@ -66578,10 +66569,10 @@
     </row>
     <row r="185" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="B185" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C185" t="s">
         <v>116</v>
@@ -66925,16 +66916,16 @@
     </row>
     <row r="186" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="B186" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="C186" t="s">
         <v>116</v>
       </c>
       <c r="D186" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E186">
         <v>31</v>
@@ -66943,7 +66934,7 @@
         <v>1300000</v>
       </c>
       <c r="G186" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="H186">
         <v>3</v>
@@ -67272,16 +67263,16 @@
     </row>
     <row r="187" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="B187" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="C187" t="s">
         <v>116</v>
       </c>
       <c r="D187" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="E187">
         <v>29</v>
@@ -67619,10 +67610,10 @@
     </row>
     <row r="188" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="B188" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="C188" t="s">
         <v>116</v>
@@ -67664,10 +67655,10 @@
         <v>36.36</v>
       </c>
       <c r="P188" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="Q188" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="R188" t="s">
         <v>163</v>
@@ -67966,10 +67957,10 @@
     </row>
     <row r="189" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="B189" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="C189" t="s">
         <v>116</v>
@@ -68313,10 +68304,10 @@
     </row>
     <row r="190" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="B190" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="C190" t="s">
         <v>116</v>
@@ -68660,10 +68651,10 @@
     </row>
     <row r="191" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="B191" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C191" t="s">
         <v>116</v>
@@ -69007,10 +68998,10 @@
     </row>
     <row r="192" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="B192" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="C192" t="s">
         <v>116</v>
@@ -69052,10 +69043,10 @@
         <v>55.06</v>
       </c>
       <c r="P192" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="Q192" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="R192" t="s">
         <v>163</v>
@@ -69354,10 +69345,10 @@
     </row>
     <row r="193" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="B193" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C193" t="s">
         <v>116</v>
@@ -69399,10 +69390,10 @@
         <v>100</v>
       </c>
       <c r="P193" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="Q193" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="R193" t="s">
         <v>163</v>
@@ -69701,10 +69692,10 @@
     </row>
     <row r="194" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B194" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="C194" t="s">
         <v>116</v>
@@ -69746,10 +69737,10 @@
         <v>36.840000000000003</v>
       </c>
       <c r="P194" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="Q194" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="R194" t="s">
         <v>163</v>
@@ -70048,10 +70039,10 @@
     </row>
     <row r="195" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="B195" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C195" t="s">
         <v>116</v>
@@ -70395,16 +70386,16 @@
     </row>
     <row r="196" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="B196" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C196" t="s">
         <v>116</v>
       </c>
       <c r="D196" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E196">
         <v>33</v>
@@ -70440,10 +70431,10 @@
         <v>64.709999999999994</v>
       </c>
       <c r="P196" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="Q196" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="R196" t="s">
         <v>121</v>
@@ -70742,16 +70733,16 @@
     </row>
     <row r="197" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="B197" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="C197" t="s">
         <v>116</v>
       </c>
       <c r="D197" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="E197">
         <v>27</v>
@@ -71089,10 +71080,10 @@
     </row>
     <row r="198" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="B198" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="C198" t="s">
         <v>116</v>
@@ -71134,10 +71125,10 @@
         <v>83.33</v>
       </c>
       <c r="P198" t="s">
-        <v>119</v>
+        <v>254</v>
       </c>
       <c r="Q198" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="R198" t="s">
         <v>121</v>
@@ -71436,10 +71427,10 @@
     </row>
     <row r="199" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="B199" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="C199" t="s">
         <v>116</v>
@@ -71484,7 +71475,7 @@
         <v>309</v>
       </c>
       <c r="Q199" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="R199" t="s">
         <v>121</v>
@@ -71783,16 +71774,16 @@
     </row>
     <row r="200" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="B200" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="C200" t="s">
         <v>116</v>
       </c>
       <c r="D200" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E200">
         <v>35</v>
@@ -71828,10 +71819,10 @@
         <v>52.99</v>
       </c>
       <c r="P200" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="Q200" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="R200" t="s">
         <v>121</v>
@@ -72130,16 +72121,16 @@
     </row>
     <row r="201" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="B201" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="C201" t="s">
         <v>116</v>
       </c>
       <c r="D201" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="E201">
         <v>30</v>
@@ -72175,10 +72166,10 @@
         <v>41.33</v>
       </c>
       <c r="P201" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="Q201" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="R201" t="s">
         <v>121</v>
@@ -72477,10 +72468,10 @@
     </row>
     <row r="202" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="B202" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="C202" t="s">
         <v>116</v>
@@ -72824,16 +72815,16 @@
     </row>
     <row r="203" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="B203" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="C203" t="s">
         <v>116</v>
       </c>
       <c r="D203" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="E203">
         <v>25</v>
@@ -72869,10 +72860,10 @@
         <v>51.15</v>
       </c>
       <c r="P203" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="Q203" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="R203" t="s">
         <v>163</v>
@@ -73171,10 +73162,10 @@
     </row>
     <row r="204" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="B204" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="C204" t="s">
         <v>116</v>
@@ -73518,10 +73509,10 @@
     </row>
     <row r="205" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="B205" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="C205" t="s">
         <v>116</v>
@@ -73566,7 +73557,7 @@
         <v>232</v>
       </c>
       <c r="Q205" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="R205" t="s">
         <v>163</v>
@@ -73865,16 +73856,16 @@
     </row>
     <row r="206" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="B206" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C206" t="s">
         <v>116</v>
       </c>
       <c r="D206" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="E206">
         <v>37</v>
@@ -74212,16 +74203,16 @@
     </row>
     <row r="207" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="B207" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="C207" t="s">
         <v>116</v>
       </c>
       <c r="D207" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="E207">
         <v>24</v>
@@ -74230,7 +74221,7 @@
         <v>850000</v>
       </c>
       <c r="G207" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="H207">
         <v>3</v>
@@ -74257,10 +74248,10 @@
         <v>45</v>
       </c>
       <c r="P207" t="s">
-        <v>254</v>
+        <v>385</v>
       </c>
       <c r="Q207" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="R207" t="s">
         <v>121</v>
@@ -74559,10 +74550,10 @@
     </row>
     <row r="208" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="B208" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="C208" t="s">
         <v>116</v>
@@ -74604,10 +74595,10 @@
         <v>33.049999999999997</v>
       </c>
       <c r="P208" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="Q208" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="R208" t="s">
         <v>163</v>
@@ -74906,16 +74897,16 @@
     </row>
     <row r="209" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="B209" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="C209" t="s">
         <v>116</v>
       </c>
       <c r="D209" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E209">
         <v>30</v>
@@ -74951,10 +74942,10 @@
         <v>57.65</v>
       </c>
       <c r="P209" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="Q209" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="R209" t="s">
         <v>121</v>
@@ -75253,10 +75244,10 @@
     </row>
     <row r="210" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="B210" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="C210" t="s">
         <v>116</v>
@@ -75298,10 +75289,10 @@
         <v>56.56</v>
       </c>
       <c r="P210" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="Q210" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="R210" t="s">
         <v>121</v>
@@ -75600,10 +75591,10 @@
     </row>
     <row r="211" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B211" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="C211" t="s">
         <v>116</v>
@@ -75645,10 +75636,10 @@
         <v>100</v>
       </c>
       <c r="P211" t="s">
-        <v>131</v>
+        <v>309</v>
       </c>
       <c r="Q211" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="R211" t="s">
         <v>121</v>
@@ -75947,10 +75938,10 @@
     </row>
     <row r="212" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="B212" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="C212" t="s">
         <v>116</v>
@@ -75992,10 +75983,10 @@
         <v>65.12</v>
       </c>
       <c r="P212" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="Q212" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="R212" t="s">
         <v>163</v>
@@ -76294,10 +76285,10 @@
     </row>
     <row r="213" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="B213" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="C213" t="s">
         <v>116</v>
@@ -76339,10 +76330,10 @@
         <v>116</v>
       </c>
       <c r="P213" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="Q213" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="R213" t="s">
         <v>121</v>
@@ -76641,10 +76632,10 @@
     </row>
     <row r="214" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="B214" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="C214" t="s">
         <v>116</v>
@@ -76686,10 +76677,10 @@
         <v>69.23</v>
       </c>
       <c r="P214" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="Q214" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="R214" t="s">
         <v>121</v>
@@ -76988,16 +76979,16 @@
     </row>
     <row r="215" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="B215" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C215" t="s">
         <v>116</v>
       </c>
       <c r="D215" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="E215">
         <v>24</v>
@@ -77033,10 +77024,10 @@
         <v>58.77</v>
       </c>
       <c r="P215" t="s">
-        <v>131</v>
+        <v>254</v>
       </c>
       <c r="Q215" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="R215" t="s">
         <v>121</v>
@@ -77335,16 +77326,16 @@
     </row>
     <row r="216" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="B216" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C216" t="s">
         <v>116</v>
       </c>
       <c r="D216" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="E216">
         <v>23</v>
@@ -77682,16 +77673,16 @@
     </row>
     <row r="217" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="B217" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="C217" t="s">
         <v>116</v>
       </c>
       <c r="D217" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E217">
         <v>25</v>
@@ -77727,10 +77718,10 @@
         <v>55.21</v>
       </c>
       <c r="P217" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="Q217" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="R217" t="s">
         <v>121</v>
@@ -78029,16 +78020,16 @@
     </row>
     <row r="218" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="B218" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="C218" t="s">
         <v>116</v>
       </c>
       <c r="D218" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E218">
         <v>23</v>
@@ -78074,10 +78065,10 @@
         <v>44.88</v>
       </c>
       <c r="P218" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="Q218" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="R218" t="s">
         <v>121</v>
@@ -78376,10 +78367,10 @@
     </row>
     <row r="219" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="B219" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="C219" t="s">
         <v>116</v>
@@ -78421,10 +78412,10 @@
         <v>30.08</v>
       </c>
       <c r="P219" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="Q219" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="R219" t="s">
         <v>163</v>
@@ -78723,16 +78714,16 @@
     </row>
     <row r="220" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="B220" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="C220" t="s">
         <v>116</v>
       </c>
       <c r="D220" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="E220">
         <v>37</v>
@@ -79070,16 +79061,16 @@
     </row>
     <row r="221" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="B221" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="C221" t="s">
         <v>116</v>
       </c>
       <c r="D221" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="E221">
         <v>23</v>
@@ -79115,10 +79106,10 @@
         <v>65.45</v>
       </c>
       <c r="P221" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="Q221" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="R221" t="s">
         <v>121</v>
@@ -79417,7 +79408,7 @@
     </row>
     <row r="222" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="B222" t="s">
         <v>211</v>
@@ -79426,7 +79417,7 @@
         <v>116</v>
       </c>
       <c r="D222" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="E222">
         <v>21</v>
@@ -79764,10 +79755,10 @@
     </row>
     <row r="223" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="B223" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="C223" t="s">
         <v>116</v>
@@ -80111,16 +80102,16 @@
     </row>
     <row r="224" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="B224" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="C224" t="s">
         <v>116</v>
       </c>
       <c r="D224" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="E224">
         <v>25</v>
@@ -80458,10 +80449,10 @@
     </row>
     <row r="225" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="B225" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="C225" t="s">
         <v>116</v>
@@ -80503,10 +80494,10 @@
         <v>45.97</v>
       </c>
       <c r="P225" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="Q225" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="R225" t="s">
         <v>163</v>
@@ -80805,16 +80796,16 @@
     </row>
     <row r="226" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="B226" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="C226" t="s">
         <v>116</v>
       </c>
       <c r="D226" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="E226">
         <v>32</v>
@@ -80850,10 +80841,10 @@
         <v>62.5</v>
       </c>
       <c r="P226" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="Q226" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="R226" t="s">
         <v>121</v>
@@ -81152,16 +81143,16 @@
     </row>
     <row r="227" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="B227" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="C227" t="s">
         <v>116</v>
       </c>
       <c r="D227" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E227">
         <v>32</v>
@@ -81197,10 +81188,10 @@
         <v>53.85</v>
       </c>
       <c r="P227" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="Q227" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="R227" t="s">
         <v>121</v>
@@ -81499,16 +81490,16 @@
     </row>
     <row r="228" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="B228" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="C228" t="s">
         <v>116</v>
       </c>
       <c r="D228" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="E228">
         <v>27</v>
@@ -81544,10 +81535,10 @@
         <v>39.68</v>
       </c>
       <c r="P228" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="Q228" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="R228" t="s">
         <v>163</v>
@@ -81846,10 +81837,10 @@
     </row>
     <row r="229" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="B229" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="C229" t="s">
         <v>116</v>
@@ -81891,10 +81882,10 @@
         <v>80</v>
       </c>
       <c r="P229" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="Q229" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="R229" t="s">
         <v>121</v>
@@ -82193,16 +82184,16 @@
     </row>
     <row r="230" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="B230" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="C230" t="s">
         <v>116</v>
       </c>
       <c r="D230" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="E230">
         <v>26</v>
@@ -82238,10 +82229,10 @@
         <v>43.24</v>
       </c>
       <c r="P230" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="Q230" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="R230" t="s">
         <v>163</v>
@@ -82540,16 +82531,16 @@
     </row>
     <row r="231" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="B231" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="C231" t="s">
         <v>116</v>
       </c>
       <c r="D231" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="E231">
         <v>28</v>
@@ -82585,10 +82576,10 @@
         <v>37.840000000000003</v>
       </c>
       <c r="P231" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="Q231" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="R231" t="s">
         <v>121</v>
@@ -82887,10 +82878,10 @@
     </row>
     <row r="232" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="B232" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="C232" t="s">
         <v>116</v>
@@ -82932,10 +82923,10 @@
         <v>42.55</v>
       </c>
       <c r="P232" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="Q232" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="R232" t="s">
         <v>121</v>
@@ -83234,16 +83225,16 @@
     </row>
     <row r="233" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="B233" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="C233" t="s">
         <v>116</v>
       </c>
       <c r="D233" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E233">
         <v>27</v>
@@ -83279,10 +83270,10 @@
         <v>56.56</v>
       </c>
       <c r="P233" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="Q233" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="R233" t="s">
         <v>121</v>
@@ -83581,10 +83572,10 @@
     </row>
     <row r="234" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="B234" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="C234" t="s">
         <v>116</v>
@@ -83599,7 +83590,7 @@
         <v>450000</v>
       </c>
       <c r="G234" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="H234">
         <v>13</v>
@@ -83928,10 +83919,10 @@
     </row>
     <row r="235" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="B235" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="C235" t="s">
         <v>116</v>
@@ -83973,10 +83964,10 @@
         <v>40</v>
       </c>
       <c r="P235" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="Q235" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="R235" t="s">
         <v>163</v>
@@ -84275,10 +84266,10 @@
     </row>
     <row r="236" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="B236" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="C236" t="s">
         <v>116</v>
@@ -84323,7 +84314,7 @@
         <v>309</v>
       </c>
       <c r="Q236" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="R236" t="s">
         <v>121</v>
@@ -84622,16 +84613,16 @@
     </row>
     <row r="237" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="B237" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="C237" t="s">
         <v>116</v>
       </c>
       <c r="D237" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="E237">
         <v>35</v>
@@ -84667,10 +84658,10 @@
         <v>45.98</v>
       </c>
       <c r="P237" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="Q237" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="R237" t="s">
         <v>121</v>
@@ -84969,16 +84960,16 @@
     </row>
     <row r="238" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="B238" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="C238" t="s">
         <v>116</v>
       </c>
       <c r="D238" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="E238">
         <v>35</v>
@@ -85014,10 +85005,10 @@
         <v>56.58</v>
       </c>
       <c r="P238" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="Q238" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="R238" t="s">
         <v>121</v>
@@ -85316,16 +85307,16 @@
     </row>
     <row r="239" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="B239" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="C239" t="s">
         <v>116</v>
       </c>
       <c r="D239" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="E239">
         <v>31</v>
@@ -85361,10 +85352,10 @@
         <v>47.22</v>
       </c>
       <c r="P239" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="Q239" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="R239" t="s">
         <v>121</v>
@@ -85663,10 +85654,10 @@
     </row>
     <row r="240" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="B240" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="C240" t="s">
         <v>116</v>
@@ -85681,7 +85672,7 @@
         <v>350000</v>
       </c>
       <c r="G240" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="H240">
         <v>2</v>
@@ -86010,10 +86001,10 @@
     </row>
     <row r="241" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="B241" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C241" t="s">
         <v>116</v>
@@ -86357,10 +86348,10 @@
     </row>
     <row r="242" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="B242" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="C242" t="s">
         <v>116</v>
@@ -86402,10 +86393,10 @@
         <v>100</v>
       </c>
       <c r="P242" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="Q242" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="R242" t="s">
         <v>121</v>
@@ -86704,16 +86695,16 @@
     </row>
     <row r="243" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="B243" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="C243" t="s">
         <v>116</v>
       </c>
       <c r="D243" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="E243">
         <v>23</v>
@@ -86749,10 +86740,10 @@
         <v>56.36</v>
       </c>
       <c r="P243" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="Q243" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="R243" t="s">
         <v>121</v>
@@ -87051,7 +87042,7 @@
     </row>
     <row r="244" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="B244" t="s">
         <v>116</v>
@@ -87398,10 +87389,10 @@
     </row>
     <row r="245" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="B245" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="C245" t="s">
         <v>116</v>
@@ -87745,16 +87736,16 @@
     </row>
     <row r="246" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="B246" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C246" t="s">
         <v>116</v>
       </c>
       <c r="D246" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="E246">
         <v>37</v>
@@ -88092,10 +88083,10 @@
     </row>
     <row r="247" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="B247" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C247" t="s">
         <v>116</v>
@@ -88439,16 +88430,16 @@
     </row>
     <row r="248" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="B248" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="C248" t="s">
         <v>116</v>
       </c>
       <c r="D248" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="E248">
         <v>32</v>
@@ -88484,10 +88475,10 @@
         <v>35</v>
       </c>
       <c r="P248" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="Q248" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="R248" t="s">
         <v>121</v>
@@ -88786,16 +88777,16 @@
     </row>
     <row r="249" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="B249" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="C249" t="s">
         <v>116</v>
       </c>
       <c r="D249" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E249">
         <v>21</v>
@@ -88831,10 +88822,10 @@
         <v>34.78</v>
       </c>
       <c r="P249" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="Q249" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="R249" t="s">
         <v>121</v>
@@ -89133,16 +89124,16 @@
     </row>
     <row r="250" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="B250" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="C250" t="s">
         <v>116</v>
       </c>
       <c r="D250" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="E250">
         <v>34</v>
@@ -89178,10 +89169,10 @@
         <v>47.27</v>
       </c>
       <c r="P250" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="Q250" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="R250" t="s">
         <v>121</v>
@@ -89480,16 +89471,16 @@
     </row>
     <row r="251" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="B251" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="C251" t="s">
         <v>116</v>
       </c>
       <c r="D251" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E251">
         <v>31</v>
@@ -89827,10 +89818,10 @@
     </row>
     <row r="252" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B252" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="C252" t="s">
         <v>116</v>
@@ -89872,10 +89863,10 @@
         <v>100</v>
       </c>
       <c r="P252" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="Q252" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="R252" t="s">
         <v>121</v>
@@ -90174,16 +90165,16 @@
     </row>
     <row r="253" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="B253" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="C253" t="s">
         <v>116</v>
       </c>
       <c r="D253" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="E253">
         <v>33</v>
@@ -90192,7 +90183,7 @@
         <v>150000</v>
       </c>
       <c r="G253" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="H253">
         <v>3</v>
@@ -90219,10 +90210,10 @@
         <v>48.89</v>
       </c>
       <c r="P253" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="Q253" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="R253" t="s">
         <v>121</v>
@@ -90521,7 +90512,7 @@
     </row>
     <row r="254" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="B254" t="s">
         <v>252</v>
@@ -90530,7 +90521,7 @@
         <v>116</v>
       </c>
       <c r="D254" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E254">
         <v>21</v>
@@ -90566,10 +90557,10 @@
         <v>68.75</v>
       </c>
       <c r="P254" t="s">
-        <v>696</v>
+        <v>598</v>
       </c>
       <c r="Q254" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="R254" t="s">
         <v>121</v>
@@ -90868,10 +90859,10 @@
     </row>
     <row r="255" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="B255" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="C255" t="s">
         <v>116</v>
@@ -90913,10 +90904,10 @@
         <v>33.17</v>
       </c>
       <c r="P255" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="Q255" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="R255" t="s">
         <v>121</v>
@@ -91215,7 +91206,7 @@
     </row>
     <row r="256" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="B256" t="s">
         <v>116</v>
@@ -91260,13 +91251,13 @@
         <v>25.95</v>
       </c>
       <c r="P256" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="Q256" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="R256" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="S256">
         <v>183</v>
@@ -91562,10 +91553,10 @@
     </row>
     <row r="257" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="B257" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="C257" t="s">
         <v>116</v>
@@ -91909,16 +91900,16 @@
     </row>
     <row r="258" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="B258" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="C258" t="s">
         <v>116</v>
       </c>
       <c r="D258" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="E258">
         <v>31</v>
@@ -92256,7 +92247,7 @@
     </row>
     <row r="259" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="B259" t="s">
         <v>189</v>
@@ -92265,7 +92256,7 @@
         <v>116</v>
       </c>
       <c r="D259" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="E259">
         <v>21</v>
@@ -92603,16 +92594,16 @@
     </row>
     <row r="260" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="B260" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="C260" t="s">
         <v>116</v>
       </c>
       <c r="D260" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="E260">
         <v>20</v>
@@ -92648,10 +92639,10 @@
         <v>60.71</v>
       </c>
       <c r="P260" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="Q260" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="R260" t="s">
         <v>163</v>
@@ -92950,10 +92941,10 @@
     </row>
     <row r="261" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="B261" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="C261" t="s">
         <v>116</v>
@@ -92968,7 +92959,7 @@
         <v>0</v>
       </c>
       <c r="G261" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="H261">
         <v>4</v>
@@ -92995,10 +92986,10 @@
         <v>55</v>
       </c>
       <c r="P261" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="Q261" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="R261" t="s">
         <v>121</v>
@@ -93297,16 +93288,16 @@
     </row>
     <row r="262" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="B262" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C262" t="s">
         <v>116</v>
       </c>
       <c r="D262" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="E262">
         <v>21</v>
@@ -93644,16 +93635,16 @@
     </row>
     <row r="263" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="B263" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="C263" t="s">
         <v>116</v>
       </c>
       <c r="D263" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="E263">
         <v>21</v>
@@ -93689,10 +93680,10 @@
         <v>57.14</v>
       </c>
       <c r="P263" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="Q263" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="R263" t="s">
         <v>121</v>
@@ -93991,16 +93982,16 @@
     </row>
     <row r="264" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="B264" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="C264" t="s">
         <v>116</v>
       </c>
       <c r="D264" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="E264">
         <v>20</v>
@@ -94036,10 +94027,10 @@
         <v>48.28</v>
       </c>
       <c r="P264" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="Q264" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="R264" t="s">
         <v>121</v>
@@ -94338,16 +94329,16 @@
     </row>
     <row r="265" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="B265" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="C265" t="s">
         <v>116</v>
       </c>
       <c r="D265" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="E265">
         <v>26</v>
@@ -94383,10 +94374,10 @@
         <v>34.619999999999997</v>
       </c>
       <c r="P265" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="Q265" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="R265" t="s">
         <v>121</v>
@@ -94685,7 +94676,7 @@
     </row>
     <row r="266" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="B266" t="s">
         <v>305</v>
@@ -94694,7 +94685,7 @@
         <v>116</v>
       </c>
       <c r="D266" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="E266">
         <v>24</v>
@@ -95032,16 +95023,16 @@
     </row>
     <row r="267" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="B267" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C267" t="s">
         <v>116</v>
       </c>
       <c r="D267" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="E267">
         <v>22</v>
@@ -95379,16 +95370,16 @@
     </row>
     <row r="268" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="B268" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="C268" t="s">
         <v>116</v>
       </c>
       <c r="D268" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="E268">
         <v>21</v>
@@ -95726,7 +95717,7 @@
     </row>
     <row r="269" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="B269" t="s">
         <v>115</v>
@@ -96073,16 +96064,16 @@
     </row>
     <row r="270" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="B270" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="C270" t="s">
         <v>116</v>
       </c>
       <c r="D270" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="E270">
         <v>24</v>
@@ -96118,10 +96109,10 @@
         <v>49.57</v>
       </c>
       <c r="P270" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="Q270" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="R270" t="s">
         <v>121</v>
@@ -96420,16 +96411,16 @@
     </row>
     <row r="271" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="B271" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C271" t="s">
         <v>116</v>
       </c>
       <c r="D271" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="E271">
         <v>20</v>
@@ -96465,10 +96456,10 @@
         <v>32.93</v>
       </c>
       <c r="P271" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="Q271" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="R271" t="s">
         <v>163</v>
@@ -96767,10 +96758,10 @@
     </row>
     <row r="272" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="B272" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="C272" t="s">
         <v>116</v>
@@ -96785,7 +96776,7 @@
         <v>0</v>
       </c>
       <c r="G272" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="H272">
         <v>6</v>
@@ -96812,10 +96803,10 @@
         <v>43.28</v>
       </c>
       <c r="P272" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="Q272" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="R272" t="s">
         <v>163</v>
@@ -97114,10 +97105,10 @@
     </row>
     <row r="273" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="B273" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="C273" t="s">
         <v>116</v>
@@ -97159,10 +97150,10 @@
         <v>55.14</v>
       </c>
       <c r="P273" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="Q273" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="R273" t="s">
         <v>163</v>
@@ -97461,10 +97452,10 @@
     </row>
     <row r="274" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="B274" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="C274" t="s">
         <v>116</v>
@@ -97808,16 +97799,16 @@
     </row>
     <row r="275" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="B275" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C275" t="s">
         <v>116</v>
       </c>
       <c r="D275" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="E275">
         <v>17</v>
@@ -98155,16 +98146,16 @@
     </row>
     <row r="276" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="B276" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="C276" t="s">
         <v>116</v>
       </c>
       <c r="D276" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="E276">
         <v>20</v>
@@ -98502,16 +98493,16 @@
     </row>
     <row r="277" spans="1:115" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="B277" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="C277" t="s">
         <v>116</v>
       </c>
       <c r="D277" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="E277">
         <v>22</v>
@@ -98848,6 +98839,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:DK277" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/data/CONMEBOL QUALI.xlsx
+++ b/data/CONMEBOL QUALI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felipe\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B196A2-2DED-4C77-A903-C3DBD7C4D27B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96277311-1FB3-45FB-837B-48FAA593C8FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5970" yWindow="2730" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4271" uniqueCount="742">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4271" uniqueCount="741">
   <si>
     <t>Player</t>
   </si>
@@ -2247,9 +2247,6 @@
   <si>
     <t>LW, LWF, CF</t>
   </si>
-  <si>
-    <t>Peruu</t>
-  </si>
 </sst>
 </file>
 
@@ -2608,7 +2605,7 @@
   <dimension ref="A1:DK277"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -65226,7 +65223,7 @@
         <v>31.4</v>
       </c>
       <c r="P181" t="s">
-        <v>741</v>
+        <v>385</v>
       </c>
       <c r="Q181" t="s">
         <v>555</v>
